--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\行政_B1病歷組\不公開資訊\! 管理業務\班表\班表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c3044\Desktop\Schedule_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BB1892-DFA9-4777-9751-3F7C4CDF9297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115113F2-9D4E-4C2A-A51D-F5A12DEF946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="節日" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="95">
   <si>
     <t>卡號</t>
   </si>
@@ -512,18 +512,6 @@
   <si>
     <t>至少9</t>
   </si>
-  <si>
-    <t>2例</t>
-  </si>
-  <si>
-    <t>2休</t>
-  </si>
-  <si>
-    <t>3休</t>
-  </si>
-  <si>
-    <t>4休</t>
-  </si>
 </sst>
 </file>
 
@@ -536,7 +524,7 @@
     <numFmt numFmtId="179" formatCode="d"/>
     <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,6 +670,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -807,7 +802,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +812,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1008,8 +1004,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{18C5A906-EE05-4F03-941F-85E96884DA71}"/>
     <cellStyle name="一般_107每月班表" xfId="2" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1305,13 +1302,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>30</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>46069</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>46070</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25">
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>46071</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25">
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1356,7 @@
         <v>46072</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25">
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>46073</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25">
+    <row r="8" spans="1:2" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25">
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>36</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>46115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25">
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>46118</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25">
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25">
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>46192</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25">
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>40</v>
       </c>
@@ -1415,7 +1412,7 @@
         <v>46290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25">
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1420,7 @@
         <v>46293</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25">
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>42</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>46304</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25">
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>43</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>46321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25">
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>44</v>
       </c>
@@ -1462,14 +1459,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="36" customWidth="1"/>
     <col min="2" max="3" width="9" style="37" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
@@ -1483,7 +1480,7 @@
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1494,7 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5">
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>49</v>
       </c>
@@ -1511,7 +1508,7 @@
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>50</v>
       </c>
@@ -1525,7 +1522,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5">
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>51</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5">
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>52</v>
       </c>
@@ -1553,7 +1550,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5">
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -1567,7 +1564,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:6" ht="19.5">
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5">
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5">
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5">
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5">
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>58</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5">
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>59</v>
       </c>
@@ -1648,12 +1645,12 @@
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="68.25" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>1683</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>1660</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>25</v>
       </c>
@@ -1796,16 +1793,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4116288-0C21-41C4-BDB3-D73E6E2DECF7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
@@ -1819,158 +1816,158 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="57">
         <v>46095</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="55">
+        <v>2</v>
+      </c>
+      <c r="D2" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="57">
         <v>46095</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="55">
+        <v>2</v>
+      </c>
+      <c r="D3" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="57">
         <v>46095</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="55">
+        <v>2</v>
+      </c>
+      <c r="D4" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="57">
         <v>46095</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="55">
+        <v>2</v>
+      </c>
+      <c r="D5" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="57">
         <v>46095</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="55">
+        <v>2</v>
+      </c>
+      <c r="D6" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="57">
         <v>46095</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="55">
+        <v>2</v>
+      </c>
+      <c r="D7" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="57">
         <v>46095</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="55">
+        <v>2</v>
+      </c>
+      <c r="D8" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="57">
         <v>46095</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="55">
+        <v>2</v>
+      </c>
+      <c r="D9" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="57">
         <v>46095</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="55">
+        <v>2</v>
+      </c>
+      <c r="D10" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="57">
         <v>46095</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="55">
+        <v>2</v>
+      </c>
+      <c r="D11" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="57">
         <v>46095</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>97</v>
+      <c r="C12" s="55">
+        <v>2</v>
+      </c>
+      <c r="D12" s="54">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1987,13 +1984,13 @@
       <selection activeCell="C2" sqref="C2:C500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="33" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>60</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5">
+    <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>46082</v>
       </c>
@@ -2015,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5">
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>46082</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.5">
+    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>46082</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5">
+    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>46082</v>
       </c>
@@ -2048,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5">
+    <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>46083</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5">
+    <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>46083</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5">
+    <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>46083</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5">
+    <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>46083</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5">
+    <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>46083</v>
       </c>
@@ -2127,7 +2124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5">
+    <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>46083</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5">
+    <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>46084</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5">
+    <row r="13" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>46084</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.5">
+    <row r="14" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>46084</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5">
+    <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>46084</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5">
+    <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>46084</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>46084</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5">
+    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>46085</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5">
+    <row r="19" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>46085</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5">
+    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>46085</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5">
+    <row r="21" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>46085</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5">
+    <row r="22" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>46085</v>
       </c>
@@ -2293,7 +2290,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>46085</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>46086</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5">
+    <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>46086</v>
       </c>
@@ -2335,7 +2332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5">
+    <row r="26" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>46086</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5">
+    <row r="27" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>46086</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5">
+    <row r="28" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>46086</v>
       </c>
@@ -2377,7 +2374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5">
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>46086</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.5">
+    <row r="30" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>46087</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.5">
+    <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>46087</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5">
+    <row r="32" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>46087</v>
       </c>
@@ -2421,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.5">
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>46087</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.5">
+    <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>46087</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.5">
+    <row r="35" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>46087</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.5">
+    <row r="36" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>46088</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.5">
+    <row r="37" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>46088</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5">
+    <row r="38" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>46088</v>
       </c>
@@ -2487,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.5">
+    <row r="39" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>46088</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.5">
+    <row r="40" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>46089</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.5">
+    <row r="41" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>46089</v>
       </c>
@@ -2520,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.5">
+    <row r="42" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>46089</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.5">
+    <row r="43" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>46089</v>
       </c>
@@ -2542,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.5">
+    <row r="44" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>46090</v>
       </c>
@@ -2553,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.5">
+    <row r="45" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>46090</v>
       </c>
@@ -2564,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.5">
+    <row r="46" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>46090</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.5">
+    <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>46090</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.5">
+    <row r="48" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>46090</v>
       </c>
@@ -2597,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5">
+    <row r="49" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>46090</v>
       </c>
@@ -2608,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.5">
+    <row r="50" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>46091</v>
       </c>
@@ -2619,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5">
+    <row r="51" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>46091</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="19.5">
+    <row r="52" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>46091</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19.5">
+    <row r="53" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>46091</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="19.5">
+    <row r="54" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>46091</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.5">
+    <row r="55" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <v>46091</v>
       </c>
@@ -2674,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.5">
+    <row r="56" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>46092</v>
       </c>
@@ -2685,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.5">
+    <row r="57" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>46092</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19.5">
+    <row r="58" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>46092</v>
       </c>
@@ -2707,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19.5">
+    <row r="59" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>46092</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.5">
+    <row r="60" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>46092</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.5">
+    <row r="61" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>46092</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19.5">
+    <row r="62" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>46093</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19.5">
+    <row r="63" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>46093</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19.5">
+    <row r="64" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>46093</v>
       </c>
@@ -2773,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19.5">
+    <row r="65" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <v>46093</v>
       </c>
@@ -2784,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.5">
+    <row r="66" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <v>46093</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19.5">
+    <row r="67" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <v>46093</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19.5">
+    <row r="68" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>46094</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19.5">
+    <row r="69" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <v>46094</v>
       </c>
@@ -2828,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19.5">
+    <row r="70" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>46094</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19.5">
+    <row r="71" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>46094</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19.5">
+    <row r="72" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>46094</v>
       </c>
@@ -2861,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19.5">
+    <row r="73" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <v>46094</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19.5">
+    <row r="74" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>46095</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19.5">
+    <row r="75" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <v>46095</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="19.5">
+    <row r="76" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>46095</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="19.5">
+    <row r="77" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <v>46095</v>
       </c>
@@ -2916,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="19.5">
+    <row r="78" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>46096</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="19.5">
+    <row r="79" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <v>46096</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="19.5">
+    <row r="80" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>46096</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="19.5">
+    <row r="81" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
         <v>46096</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="19.5">
+    <row r="82" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <v>46097</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="19.5">
+    <row r="83" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
         <v>46097</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="19.5">
+    <row r="84" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>46097</v>
       </c>
@@ -2993,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="19.5">
+    <row r="85" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
         <v>46097</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="19.5">
+    <row r="86" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <v>46097</v>
       </c>
@@ -3015,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="19.5">
+    <row r="87" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <v>46097</v>
       </c>
@@ -3026,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="19.5">
+    <row r="88" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <v>46098</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="19.5">
+    <row r="89" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <v>46098</v>
       </c>
@@ -3048,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="19.5">
+    <row r="90" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <v>46098</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="19.5">
+    <row r="91" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
         <v>46098</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="19.5">
+    <row r="92" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <v>46098</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="19.5">
+    <row r="93" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
         <v>46098</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="19.5">
+    <row r="94" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <v>46099</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="19.5">
+    <row r="95" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
         <v>46099</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="19.5">
+    <row r="96" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
         <v>46099</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="19.5">
+    <row r="97" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
         <v>46099</v>
       </c>
@@ -3136,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="19.5">
+    <row r="98" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A98" s="33">
         <v>46099</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="19.5">
+    <row r="99" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A99" s="33">
         <v>46099</v>
       </c>
@@ -3158,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="19.5">
+    <row r="100" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A100" s="33">
         <v>46100</v>
       </c>
@@ -3169,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="19.5">
+    <row r="101" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
         <v>46100</v>
       </c>
@@ -3180,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="19.5">
+    <row r="102" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
         <v>46100</v>
       </c>
@@ -3191,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="19.5">
+    <row r="103" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A103" s="33">
         <v>46100</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="19.5">
+    <row r="104" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A104" s="33">
         <v>46100</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="19.5">
+    <row r="105" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
         <v>46100</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="19.5">
+    <row r="106" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
         <v>46101</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="19.5">
+    <row r="107" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
         <v>46101</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="19.5">
+    <row r="108" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A108" s="33">
         <v>46101</v>
       </c>
@@ -3257,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="19.5">
+    <row r="109" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
         <v>46101</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="19.5">
+    <row r="110" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A110" s="33">
         <v>46101</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="19.5">
+    <row r="111" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
         <v>46101</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="19.5">
+    <row r="112" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A112" s="33">
         <v>46102</v>
       </c>
@@ -3301,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="19.5">
+    <row r="113" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A113" s="33">
         <v>46102</v>
       </c>
@@ -3312,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="19.5">
+    <row r="114" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A114" s="33">
         <v>46102</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="19.5">
+    <row r="115" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A115" s="33">
         <v>46102</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="19.5">
+    <row r="116" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A116" s="33">
         <v>46103</v>
       </c>
@@ -3345,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="19.5">
+    <row r="117" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A117" s="33">
         <v>46103</v>
       </c>
@@ -3356,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="19.5">
+    <row r="118" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A118" s="33">
         <v>46103</v>
       </c>
@@ -3367,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="19.5">
+    <row r="119" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A119" s="33">
         <v>46103</v>
       </c>
@@ -3378,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="19.5">
+    <row r="120" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A120" s="33">
         <v>46104</v>
       </c>
@@ -3389,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="19.5">
+    <row r="121" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A121" s="33">
         <v>46104</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="19.5">
+    <row r="122" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A122" s="33">
         <v>46104</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="19.5">
+    <row r="123" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A123" s="33">
         <v>46104</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="19.5">
+    <row r="124" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A124" s="33">
         <v>46104</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="19.5">
+    <row r="125" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A125" s="33">
         <v>46104</v>
       </c>
@@ -3444,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="19.5">
+    <row r="126" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>46105</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="19.5">
+    <row r="127" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A127" s="33">
         <v>46105</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="19.5">
+    <row r="128" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>46105</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="19.5">
+    <row r="129" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A129" s="33">
         <v>46105</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="19.5">
+    <row r="130" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A130" s="33">
         <v>46105</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="19.5">
+    <row r="131" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A131" s="33">
         <v>46105</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="19.5">
+    <row r="132" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>46106</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="19.5">
+    <row r="133" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A133" s="33">
         <v>46106</v>
       </c>
@@ -3532,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="19.5">
+    <row r="134" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>46106</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="19.5">
+    <row r="135" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>46106</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="19.5">
+    <row r="136" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A136" s="33">
         <v>46106</v>
       </c>
@@ -3565,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="19.5">
+    <row r="137" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>46106</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="19.5">
+    <row r="138" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>46107</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="19.5">
+    <row r="139" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>46107</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="19.5">
+    <row r="140" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>46107</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="19.5">
+    <row r="141" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>46107</v>
       </c>
@@ -3620,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5">
+    <row r="142" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>46107</v>
       </c>
@@ -3631,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="19.5">
+    <row r="143" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A143" s="33">
         <v>46107</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="19.5">
+    <row r="144" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A144" s="33">
         <v>46108</v>
       </c>
@@ -3653,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="19.5">
+    <row r="145" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A145" s="33">
         <v>46108</v>
       </c>
@@ -3664,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="19.5">
+    <row r="146" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A146" s="33">
         <v>46108</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="19.5">
+    <row r="147" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A147" s="33">
         <v>46108</v>
       </c>
@@ -3686,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="19.5">
+    <row r="148" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A148" s="33">
         <v>46108</v>
       </c>
@@ -3697,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="19.5">
+    <row r="149" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A149" s="33">
         <v>46108</v>
       </c>
@@ -3708,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="19.5">
+    <row r="150" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A150" s="33">
         <v>46109</v>
       </c>
@@ -3719,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.5">
+    <row r="151" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A151" s="33">
         <v>46109</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="19.5">
+    <row r="152" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>46109</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="19.5">
+    <row r="153" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>46109</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="19.5">
+    <row r="154" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>46110</v>
       </c>
@@ -3763,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="19.5">
+    <row r="155" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>46110</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="19.5">
+    <row r="156" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>46110</v>
       </c>
@@ -3785,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="19.5">
+    <row r="157" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>46110</v>
       </c>
@@ -3796,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="19.5">
+    <row r="158" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>46111</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="19.5">
+    <row r="159" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>46111</v>
       </c>
@@ -3818,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="19.5">
+    <row r="160" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>46111</v>
       </c>
@@ -3829,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="19.5">
+    <row r="161" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>46111</v>
       </c>
@@ -3840,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="19.5">
+    <row r="162" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>46111</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="19.5">
+    <row r="163" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>46111</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="19.5">
+    <row r="164" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>46112</v>
       </c>
@@ -3873,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="19.5">
+    <row r="165" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A165" s="33">
         <v>46112</v>
       </c>
@@ -3884,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="19.5">
+    <row r="166" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>46112</v>
       </c>
@@ -3895,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="19.5">
+    <row r="167" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A167" s="33">
         <v>46112</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="19.5">
+    <row r="168" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A168" s="33">
         <v>46112</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="19.5">
+    <row r="169" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A169" s="33">
         <v>46112</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="19.5">
+    <row r="170" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A170" s="33">
         <v>46113</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="19.5">
+    <row r="171" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A171" s="33">
         <v>46113</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="19.5">
+    <row r="172" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A172" s="33">
         <v>46113</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="19.5">
+    <row r="173" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A173" s="33">
         <v>46113</v>
       </c>
@@ -3972,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="19.5">
+    <row r="174" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A174" s="33">
         <v>46113</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="19.5">
+    <row r="175" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A175" s="33">
         <v>46113</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="19.5">
+    <row r="176" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A176" s="33">
         <v>46114</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="19.5">
+    <row r="177" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A177" s="33">
         <v>46114</v>
       </c>
@@ -4016,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="19.5">
+    <row r="178" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A178" s="33">
         <v>46114</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="19.5">
+    <row r="179" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A179" s="33">
         <v>46114</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="19.5">
+    <row r="180" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A180" s="33">
         <v>46114</v>
       </c>
@@ -4049,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="19.5">
+    <row r="181" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A181" s="33">
         <v>46114</v>
       </c>
@@ -4060,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="19.5">
+    <row r="182" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A182" s="33">
         <v>46115</v>
       </c>
@@ -4071,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="19.5">
+    <row r="183" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A183" s="33">
         <v>46115</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="19.5">
+    <row r="184" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A184" s="33">
         <v>46115</v>
       </c>
@@ -4093,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="19.5">
+    <row r="185" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A185" s="33">
         <v>46115</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="19.5">
+    <row r="186" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A186" s="33">
         <v>46115</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="19.5">
+    <row r="187" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A187" s="33">
         <v>46115</v>
       </c>
@@ -4126,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="19.5">
+    <row r="188" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A188" s="33">
         <v>46116</v>
       </c>
@@ -4137,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="19.5">
+    <row r="189" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A189" s="33">
         <v>46116</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="19.5">
+    <row r="190" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A190" s="33">
         <v>46116</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="19.5">
+    <row r="191" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A191" s="33">
         <v>46116</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="19.5">
+    <row r="192" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A192" s="33">
         <v>46117</v>
       </c>
@@ -4181,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="19.5">
+    <row r="193" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A193" s="33">
         <v>46117</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="19.5">
+    <row r="194" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A194" s="33">
         <v>46117</v>
       </c>
@@ -4203,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="19.5">
+    <row r="195" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A195" s="33">
         <v>46117</v>
       </c>
@@ -4214,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="19.5">
+    <row r="196" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A196" s="33">
         <v>46117</v>
       </c>
@@ -4225,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="19.5">
+    <row r="197" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A197" s="33">
         <v>46118</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="19.5">
+    <row r="198" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A198" s="33">
         <v>46118</v>
       </c>
@@ -4247,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="19.5">
+    <row r="199" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A199" s="33">
         <v>46118</v>
       </c>
@@ -4258,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="19.5">
+    <row r="200" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A200" s="33">
         <v>46118</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="19.5">
+    <row r="201" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A201" s="33">
         <v>46118</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="19.5">
+    <row r="202" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A202" s="33">
         <v>46118</v>
       </c>
@@ -4291,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="19.5">
+    <row r="203" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A203" s="33">
         <v>46119</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="19.5">
+    <row r="204" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A204" s="33">
         <v>46119</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="19.5">
+    <row r="205" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A205" s="33">
         <v>46119</v>
       </c>
@@ -4324,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="19.5">
+    <row r="206" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A206" s="33">
         <v>46119</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="19.5">
+    <row r="207" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A207" s="33">
         <v>46119</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="19.5">
+    <row r="208" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A208" s="33">
         <v>46119</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="19.5">
+    <row r="209" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A209" s="33">
         <v>46120</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="19.5">
+    <row r="210" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A210" s="33">
         <v>46120</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="19.5">
+    <row r="211" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A211" s="33">
         <v>46120</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="19.5">
+    <row r="212" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A212" s="33">
         <v>46120</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="19.5">
+    <row r="213" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A213" s="33">
         <v>46120</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="19.5">
+    <row r="214" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A214" s="33">
         <v>46120</v>
       </c>
@@ -4423,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="19.5">
+    <row r="215" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A215" s="33">
         <v>46121</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="19.5">
+    <row r="216" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A216" s="33">
         <v>46121</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="19.5">
+    <row r="217" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A217" s="33">
         <v>46121</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="19.5">
+    <row r="218" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A218" s="33">
         <v>46121</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="19.5">
+    <row r="219" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A219" s="33">
         <v>46121</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="19.5">
+    <row r="220" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A220" s="33">
         <v>46121</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="19.5">
+    <row r="221" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A221" s="33">
         <v>46122</v>
       </c>
@@ -4500,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="19.5">
+    <row r="222" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A222" s="33">
         <v>46122</v>
       </c>
@@ -4511,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="19.5">
+    <row r="223" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A223" s="33">
         <v>46122</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="19.5">
+    <row r="224" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A224" s="33">
         <v>46122</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="19.5">
+    <row r="225" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A225" s="33">
         <v>46122</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="19.5">
+    <row r="226" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A226" s="33">
         <v>46122</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="19.5">
+    <row r="227" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A227" s="33">
         <v>46123</v>
       </c>
@@ -4566,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="19.5">
+    <row r="228" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A228" s="33">
         <v>46123</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="19.5">
+    <row r="229" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A229" s="33">
         <v>46123</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="19.5">
+    <row r="230" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A230" s="33">
         <v>46123</v>
       </c>
@@ -4599,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="19.5">
+    <row r="231" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A231" s="33">
         <v>46124</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="19.5">
+    <row r="232" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A232" s="33">
         <v>46124</v>
       </c>
@@ -4621,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="19.5">
+    <row r="233" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A233" s="33">
         <v>46124</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="19.5">
+    <row r="234" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A234" s="33">
         <v>46124</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="19.5">
+    <row r="235" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A235" s="33">
         <v>46125</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="19.5">
+    <row r="236" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A236" s="33">
         <v>46125</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="19.5">
+    <row r="237" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A237" s="33">
         <v>46125</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="19.5">
+    <row r="238" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A238" s="33">
         <v>46125</v>
       </c>
@@ -4687,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="19.5">
+    <row r="239" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A239" s="33">
         <v>46125</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="19.5">
+    <row r="240" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A240" s="33">
         <v>46125</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="19.5">
+    <row r="241" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A241" s="33">
         <v>46126</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="19.5">
+    <row r="242" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A242" s="33">
         <v>46126</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="19.5">
+    <row r="243" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A243" s="33">
         <v>46126</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="19.5">
+    <row r="244" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A244" s="33">
         <v>46126</v>
       </c>
@@ -4753,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="19.5">
+    <row r="245" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A245" s="33">
         <v>46126</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="19.5">
+    <row r="246" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A246" s="33">
         <v>46126</v>
       </c>
@@ -4775,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="19.5">
+    <row r="247" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A247" s="33">
         <v>46127</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="19.5">
+    <row r="248" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A248" s="33">
         <v>46127</v>
       </c>
@@ -4797,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="19.5">
+    <row r="249" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A249" s="33">
         <v>46127</v>
       </c>
@@ -4808,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="19.5">
+    <row r="250" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A250" s="33">
         <v>46127</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="19.5">
+    <row r="251" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A251" s="33">
         <v>46127</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="19.5">
+    <row r="252" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A252" s="33">
         <v>46127</v>
       </c>
@@ -4841,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="19.5">
+    <row r="253" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A253" s="33">
         <v>46128</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="19.5">
+    <row r="254" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A254" s="33">
         <v>46128</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="19.5">
+    <row r="255" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A255" s="33">
         <v>46128</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="19.5">
+    <row r="256" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A256" s="33">
         <v>46128</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="19.5">
+    <row r="257" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A257" s="33">
         <v>46128</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="19.5">
+    <row r="258" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A258" s="33">
         <v>46128</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="19.5">
+    <row r="259" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A259" s="33">
         <v>46129</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="19.5">
+    <row r="260" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A260" s="33">
         <v>46129</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="19.5">
+    <row r="261" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A261" s="33">
         <v>46129</v>
       </c>
@@ -4940,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="19.5">
+    <row r="262" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A262" s="33">
         <v>46129</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="19.5">
+    <row r="263" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A263" s="33">
         <v>46129</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="19.5">
+    <row r="264" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A264" s="33">
         <v>46129</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="19.5">
+    <row r="265" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A265" s="33">
         <v>46130</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="19.5">
+    <row r="266" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A266" s="33">
         <v>46130</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="19.5">
+    <row r="267" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A267" s="33">
         <v>46130</v>
       </c>
@@ -5006,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="19.5">
+    <row r="268" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A268" s="33">
         <v>46130</v>
       </c>
@@ -5017,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="19.5">
+    <row r="269" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A269" s="33">
         <v>46131</v>
       </c>
@@ -5028,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="19.5">
+    <row r="270" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A270" s="33">
         <v>46131</v>
       </c>
@@ -5039,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="19.5">
+    <row r="271" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A271" s="33">
         <v>46131</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="19.5">
+    <row r="272" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A272" s="33">
         <v>46131</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="19.5">
+    <row r="273" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A273" s="33">
         <v>46132</v>
       </c>
@@ -5072,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="19.5">
+    <row r="274" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A274" s="33">
         <v>46132</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="19.5">
+    <row r="275" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A275" s="33">
         <v>46132</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="19.5">
+    <row r="276" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A276" s="33">
         <v>46132</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="19.5">
+    <row r="277" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A277" s="33">
         <v>46132</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="19.5">
+    <row r="278" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A278" s="33">
         <v>46132</v>
       </c>
@@ -5127,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="19.5">
+    <row r="279" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A279" s="33">
         <v>46133</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="19.5">
+    <row r="280" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A280" s="33">
         <v>46133</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="19.5">
+    <row r="281" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A281" s="33">
         <v>46133</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="19.5">
+    <row r="282" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A282" s="33">
         <v>46133</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="19.5">
+    <row r="283" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A283" s="33">
         <v>46133</v>
       </c>
@@ -5182,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="19.5">
+    <row r="284" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A284" s="33">
         <v>46133</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="19.5">
+    <row r="285" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A285" s="33">
         <v>46134</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="19.5">
+    <row r="286" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A286" s="33">
         <v>46134</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="19.5">
+    <row r="287" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A287" s="33">
         <v>46134</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="19.5">
+    <row r="288" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A288" s="33">
         <v>46134</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="19.5">
+    <row r="289" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A289" s="33">
         <v>46134</v>
       </c>
@@ -5248,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="19.5">
+    <row r="290" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A290" s="33">
         <v>46134</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="19.5">
+    <row r="291" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A291" s="33">
         <v>46135</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="19.5">
+    <row r="292" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A292" s="33">
         <v>46135</v>
       </c>
@@ -5281,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="19.5">
+    <row r="293" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A293" s="33">
         <v>46135</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="19.5">
+    <row r="294" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A294" s="33">
         <v>46135</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="19.5">
+    <row r="295" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A295" s="33">
         <v>46135</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="19.5">
+    <row r="296" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A296" s="33">
         <v>46135</v>
       </c>
@@ -5325,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="19.5">
+    <row r="297" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A297" s="33">
         <v>46136</v>
       </c>
@@ -5336,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="19.5">
+    <row r="298" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A298" s="33">
         <v>46136</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="19.5">
+    <row r="299" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A299" s="33">
         <v>46136</v>
       </c>
@@ -5358,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="19.5">
+    <row r="300" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A300" s="33">
         <v>46136</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="19.5">
+    <row r="301" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A301" s="33">
         <v>46136</v>
       </c>
@@ -5380,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="19.5">
+    <row r="302" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A302" s="33">
         <v>46136</v>
       </c>
@@ -5391,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="19.5">
+    <row r="303" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A303" s="33">
         <v>46137</v>
       </c>
@@ -5402,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="19.5">
+    <row r="304" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A304" s="33">
         <v>46137</v>
       </c>
@@ -5413,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="19.5">
+    <row r="305" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A305" s="33">
         <v>46137</v>
       </c>
@@ -5424,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="19.5">
+    <row r="306" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A306" s="33">
         <v>46137</v>
       </c>
@@ -5435,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="19.5">
+    <row r="307" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A307" s="33">
         <v>46138</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="19.5">
+    <row r="308" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A308" s="33">
         <v>46138</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="19.5">
+    <row r="309" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A309" s="33">
         <v>46138</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="19.5">
+    <row r="310" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A310" s="33">
         <v>46138</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="19.5">
+    <row r="311" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A311" s="33">
         <v>46139</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="19.5">
+    <row r="312" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A312" s="33">
         <v>46139</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="19.5">
+    <row r="313" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A313" s="33">
         <v>46139</v>
       </c>
@@ -5512,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="19.5">
+    <row r="314" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A314" s="33">
         <v>46139</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="19.5">
+    <row r="315" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A315" s="33">
         <v>46139</v>
       </c>
@@ -5534,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="19.5">
+    <row r="316" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A316" s="33">
         <v>46139</v>
       </c>
@@ -5545,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="19.5">
+    <row r="317" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A317" s="33">
         <v>46140</v>
       </c>
@@ -5556,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="19.5">
+    <row r="318" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A318" s="33">
         <v>46140</v>
       </c>
@@ -5567,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="19.5">
+    <row r="319" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A319" s="33">
         <v>46140</v>
       </c>
@@ -5578,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="19.5">
+    <row r="320" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A320" s="33">
         <v>46140</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="19.5">
+    <row r="321" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A321" s="33">
         <v>46140</v>
       </c>
@@ -5600,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="19.5">
+    <row r="322" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A322" s="33">
         <v>46140</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="19.5">
+    <row r="323" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A323" s="33">
         <v>46141</v>
       </c>
@@ -5622,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="19.5">
+    <row r="324" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A324" s="33">
         <v>46141</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="19.5">
+    <row r="325" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A325" s="33">
         <v>46141</v>
       </c>
@@ -5644,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="19.5">
+    <row r="326" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A326" s="33">
         <v>46141</v>
       </c>
@@ -5655,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="19.5">
+    <row r="327" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A327" s="33">
         <v>46141</v>
       </c>
@@ -5666,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="19.5">
+    <row r="328" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A328" s="33">
         <v>46141</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="19.5">
+    <row r="329" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A329" s="33">
         <v>46142</v>
       </c>
@@ -5688,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="19.5">
+    <row r="330" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A330" s="33">
         <v>46142</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="19.5">
+    <row r="331" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A331" s="33">
         <v>46142</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="19.5">
+    <row r="332" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A332" s="33">
         <v>46142</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="19.5">
+    <row r="333" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A333" s="33">
         <v>46142</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="19.5">
+    <row r="334" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A334" s="33">
         <v>46142</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="19.5">
+    <row r="335" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A335" s="33">
         <v>46143</v>
       </c>
@@ -5754,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="19.5">
+    <row r="336" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A336" s="33">
         <v>46143</v>
       </c>
@@ -5765,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="19.5">
+    <row r="337" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A337" s="33">
         <v>46143</v>
       </c>
@@ -5776,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="19.5">
+    <row r="338" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A338" s="33">
         <v>46143</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="19.5">
+    <row r="339" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A339" s="33">
         <v>46143</v>
       </c>
@@ -5798,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="19.5">
+    <row r="340" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A340" s="33">
         <v>46143</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="19.5">
+    <row r="341" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A341" s="33">
         <v>46144</v>
       </c>
@@ -5820,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="19.5">
+    <row r="342" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A342" s="33">
         <v>46144</v>
       </c>
@@ -5831,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="19.5">
+    <row r="343" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A343" s="33">
         <v>46144</v>
       </c>
@@ -5842,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="19.5">
+    <row r="344" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A344" s="33">
         <v>46144</v>
       </c>
@@ -5853,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="19.5">
+    <row r="345" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A345" s="33">
         <v>46145</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="19.5">
+    <row r="346" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A346" s="33">
         <v>46145</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="19.5">
+    <row r="347" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A347" s="33">
         <v>46145</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="19.5">
+    <row r="348" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A348" s="33">
         <v>46145</v>
       </c>
@@ -5897,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="19.5">
+    <row r="349" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A349" s="33">
         <v>46146</v>
       </c>
@@ -5908,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="19.5">
+    <row r="350" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A350" s="33">
         <v>46146</v>
       </c>
@@ -5919,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="19.5">
+    <row r="351" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A351" s="33">
         <v>46146</v>
       </c>
@@ -5930,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="19.5">
+    <row r="352" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A352" s="33">
         <v>46146</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="19.5">
+    <row r="353" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A353" s="33">
         <v>46146</v>
       </c>
@@ -5952,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="19.5">
+    <row r="354" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>46146</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="19.5">
+    <row r="355" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A355" s="33">
         <v>46147</v>
       </c>
@@ -5974,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="19.5">
+    <row r="356" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A356" s="33">
         <v>46147</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="19.5">
+    <row r="357" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A357" s="33">
         <v>46147</v>
       </c>
@@ -5996,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="19.5">
+    <row r="358" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A358" s="33">
         <v>46147</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="19.5">
+    <row r="359" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A359" s="33">
         <v>46147</v>
       </c>
@@ -6018,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="19.5">
+    <row r="360" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A360" s="33">
         <v>46147</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="19.5">
+    <row r="361" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A361" s="33">
         <v>46148</v>
       </c>
@@ -6040,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="19.5">
+    <row r="362" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A362" s="33">
         <v>46148</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="19.5">
+    <row r="363" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A363" s="33">
         <v>46148</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="19.5">
+    <row r="364" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A364" s="33">
         <v>46148</v>
       </c>
@@ -6073,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="19.5">
+    <row r="365" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A365" s="33">
         <v>46148</v>
       </c>
@@ -6084,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="19.5">
+    <row r="366" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A366" s="33">
         <v>46148</v>
       </c>
@@ -6095,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="19.5">
+    <row r="367" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A367" s="33">
         <v>46149</v>
       </c>
@@ -6106,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="19.5">
+    <row r="368" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A368" s="33">
         <v>46149</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="19.5">
+    <row r="369" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A369" s="33">
         <v>46149</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="19.5">
+    <row r="370" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A370" s="33">
         <v>46149</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="19.5">
+    <row r="371" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A371" s="33">
         <v>46149</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="19.5">
+    <row r="372" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A372" s="33">
         <v>46149</v>
       </c>
@@ -6161,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="19.5">
+    <row r="373" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>46150</v>
       </c>
@@ -6172,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="19.5">
+    <row r="374" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A374" s="33">
         <v>46150</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="19.5">
+    <row r="375" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A375" s="33">
         <v>46150</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="19.5">
+    <row r="376" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A376" s="33">
         <v>46150</v>
       </c>
@@ -6205,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="19.5">
+    <row r="377" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A377" s="33">
         <v>46150</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="19.5">
+    <row r="378" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A378" s="33">
         <v>46150</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="19.5">
+    <row r="379" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A379" s="33">
         <v>46151</v>
       </c>
@@ -6238,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="19.5">
+    <row r="380" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A380" s="33">
         <v>46151</v>
       </c>
@@ -6249,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="19.5">
+    <row r="381" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A381" s="33">
         <v>46151</v>
       </c>
@@ -6260,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="19.5">
+    <row r="382" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A382" s="33">
         <v>46151</v>
       </c>
@@ -6271,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="19.5">
+    <row r="383" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A383" s="33">
         <v>46152</v>
       </c>
@@ -6282,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="19.5">
+    <row r="384" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A384" s="33">
         <v>46152</v>
       </c>
@@ -6293,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="19.5">
+    <row r="385" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A385" s="33">
         <v>46152</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="19.5">
+    <row r="386" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A386" s="33">
         <v>46152</v>
       </c>
@@ -6315,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="19.5">
+    <row r="387" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A387" s="33">
         <v>46153</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="19.5">
+    <row r="388" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A388" s="33">
         <v>46153</v>
       </c>
@@ -6337,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="19.5">
+    <row r="389" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A389" s="33">
         <v>46153</v>
       </c>
@@ -6348,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="19.5">
+    <row r="390" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A390" s="33">
         <v>46153</v>
       </c>
@@ -6359,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="19.5">
+    <row r="391" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A391" s="33">
         <v>46153</v>
       </c>
@@ -6370,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="19.5">
+    <row r="392" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A392" s="33">
         <v>46153</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="19.5">
+    <row r="393" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A393" s="33">
         <v>46154</v>
       </c>
@@ -6392,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="19.5">
+    <row r="394" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A394" s="33">
         <v>46154</v>
       </c>
@@ -6403,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="19.5">
+    <row r="395" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A395" s="33">
         <v>46154</v>
       </c>
@@ -6414,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="19.5">
+    <row r="396" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A396" s="33">
         <v>46154</v>
       </c>
@@ -6425,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="19.5">
+    <row r="397" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A397" s="33">
         <v>46154</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="19.5">
+    <row r="398" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A398" s="33">
         <v>46154</v>
       </c>
@@ -6447,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="19.5">
+    <row r="399" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A399" s="33">
         <v>46155</v>
       </c>
@@ -6458,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="19.5">
+    <row r="400" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A400" s="33">
         <v>46155</v>
       </c>
@@ -6469,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="19.5">
+    <row r="401" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A401" s="33">
         <v>46155</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="19.5">
+    <row r="402" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A402" s="33">
         <v>46155</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="19.5">
+    <row r="403" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A403" s="33">
         <v>46155</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="19.5">
+    <row r="404" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A404" s="33">
         <v>46155</v>
       </c>
@@ -6513,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="19.5">
+    <row r="405" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A405" s="33">
         <v>46156</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="19.5">
+    <row r="406" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A406" s="33">
         <v>46156</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="19.5">
+    <row r="407" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A407" s="33">
         <v>46156</v>
       </c>
@@ -6546,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="19.5">
+    <row r="408" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A408" s="33">
         <v>46156</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="19.5">
+    <row r="409" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A409" s="33">
         <v>46156</v>
       </c>
@@ -6568,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="19.5">
+    <row r="410" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A410" s="33">
         <v>46156</v>
       </c>
@@ -6579,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="19.5">
+    <row r="411" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A411" s="33">
         <v>46157</v>
       </c>
@@ -6590,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="19.5">
+    <row r="412" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A412" s="33">
         <v>46157</v>
       </c>
@@ -6601,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="19.5">
+    <row r="413" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A413" s="33">
         <v>46157</v>
       </c>
@@ -6612,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="19.5">
+    <row r="414" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A414" s="33">
         <v>46157</v>
       </c>
@@ -6623,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="19.5">
+    <row r="415" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A415" s="33">
         <v>46157</v>
       </c>
@@ -6634,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="19.5">
+    <row r="416" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A416" s="33">
         <v>46157</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="19.5">
+    <row r="417" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A417" s="33">
         <v>46158</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="19.5">
+    <row r="418" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A418" s="33">
         <v>46158</v>
       </c>
@@ -6667,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="19.5">
+    <row r="419" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A419" s="33">
         <v>46158</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="19.5">
+    <row r="420" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A420" s="33">
         <v>46158</v>
       </c>
@@ -6689,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="19.5">
+    <row r="421" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A421" s="33">
         <v>46159</v>
       </c>
@@ -6700,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="19.5">
+    <row r="422" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A422" s="33">
         <v>46159</v>
       </c>
@@ -6711,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="19.5">
+    <row r="423" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A423" s="33">
         <v>46159</v>
       </c>
@@ -6722,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="19.5">
+    <row r="424" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A424" s="33">
         <v>46159</v>
       </c>
@@ -6733,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="19.5">
+    <row r="425" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A425" s="33">
         <v>46160</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="19.5">
+    <row r="426" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A426" s="33">
         <v>46160</v>
       </c>
@@ -6755,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="19.5">
+    <row r="427" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A427" s="33">
         <v>46160</v>
       </c>
@@ -6766,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="19.5">
+    <row r="428" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A428" s="33">
         <v>46160</v>
       </c>
@@ -6777,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="19.5">
+    <row r="429" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A429" s="33">
         <v>46160</v>
       </c>
@@ -6788,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="19.5">
+    <row r="430" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A430" s="33">
         <v>46160</v>
       </c>
@@ -6799,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="19.5">
+    <row r="431" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A431" s="33">
         <v>46161</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="19.5">
+    <row r="432" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A432" s="33">
         <v>46161</v>
       </c>
@@ -6821,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="19.5">
+    <row r="433" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A433" s="33">
         <v>46161</v>
       </c>
@@ -6832,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="19.5">
+    <row r="434" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A434" s="33">
         <v>46161</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="19.5">
+    <row r="435" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A435" s="33">
         <v>46161</v>
       </c>
@@ -6854,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="19.5">
+    <row r="436" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A436" s="33">
         <v>46161</v>
       </c>
@@ -6865,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="19.5">
+    <row r="437" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A437" s="33">
         <v>46162</v>
       </c>
@@ -6876,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="19.5">
+    <row r="438" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A438" s="33">
         <v>46162</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="19.5">
+    <row r="439" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A439" s="33">
         <v>46162</v>
       </c>
@@ -6898,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="19.5">
+    <row r="440" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A440" s="33">
         <v>46162</v>
       </c>
@@ -6909,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="19.5">
+    <row r="441" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A441" s="33">
         <v>46162</v>
       </c>
@@ -6920,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="19.5">
+    <row r="442" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A442" s="33">
         <v>46162</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="19.5">
+    <row r="443" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A443" s="33">
         <v>46163</v>
       </c>
@@ -6942,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="19.5">
+    <row r="444" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A444" s="33">
         <v>46163</v>
       </c>
@@ -6953,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="19.5">
+    <row r="445" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A445" s="33">
         <v>46163</v>
       </c>
@@ -6964,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="19.5">
+    <row r="446" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A446" s="33">
         <v>46163</v>
       </c>
@@ -6975,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="19.5">
+    <row r="447" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A447" s="33">
         <v>46163</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="19.5">
+    <row r="448" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A448" s="33">
         <v>46163</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="19.5">
+    <row r="449" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A449" s="33">
         <v>46164</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="19.5">
+    <row r="450" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A450" s="33">
         <v>46164</v>
       </c>
@@ -7019,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="19.5">
+    <row r="451" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A451" s="33">
         <v>46164</v>
       </c>
@@ -7030,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="19.5">
+    <row r="452" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A452" s="33">
         <v>46164</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="19.5">
+    <row r="453" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A453" s="33">
         <v>46164</v>
       </c>
@@ -7052,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="19.5">
+    <row r="454" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A454" s="33">
         <v>46164</v>
       </c>
@@ -7063,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="19.5">
+    <row r="455" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A455" s="33">
         <v>46165</v>
       </c>
@@ -7074,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="19.5">
+    <row r="456" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A456" s="33">
         <v>46165</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="19.5">
+    <row r="457" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A457" s="33">
         <v>46165</v>
       </c>
@@ -7096,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="19.5">
+    <row r="458" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A458" s="33">
         <v>46165</v>
       </c>
@@ -7107,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="19.5">
+    <row r="459" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A459" s="33">
         <v>46166</v>
       </c>
@@ -7118,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="19.5">
+    <row r="460" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A460" s="33">
         <v>46166</v>
       </c>
@@ -7129,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="19.5">
+    <row r="461" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A461" s="33">
         <v>46166</v>
       </c>
@@ -7140,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="19.5">
+    <row r="462" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A462" s="33">
         <v>46166</v>
       </c>
@@ -7151,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="19.5">
+    <row r="463" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A463" s="33">
         <v>46167</v>
       </c>
@@ -7162,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="19.5">
+    <row r="464" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A464" s="33">
         <v>46167</v>
       </c>
@@ -7173,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="19.5">
+    <row r="465" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A465" s="33">
         <v>46167</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="19.5">
+    <row r="466" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A466" s="33">
         <v>46167</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="19.5">
+    <row r="467" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A467" s="33">
         <v>46167</v>
       </c>
@@ -7206,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="19.5">
+    <row r="468" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A468" s="33">
         <v>46167</v>
       </c>
@@ -7217,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="19.5">
+    <row r="469" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A469" s="33">
         <v>46168</v>
       </c>
@@ -7228,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="19.5">
+    <row r="470" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A470" s="33">
         <v>46168</v>
       </c>
@@ -7239,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="19.5">
+    <row r="471" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A471" s="33">
         <v>46168</v>
       </c>
@@ -7250,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="19.5">
+    <row r="472" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A472" s="33">
         <v>46168</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="19.5">
+    <row r="473" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A473" s="33">
         <v>46168</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="19.5">
+    <row r="474" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A474" s="33">
         <v>46168</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="19.5">
+    <row r="475" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A475" s="33">
         <v>46169</v>
       </c>
@@ -7294,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="19.5">
+    <row r="476" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A476" s="33">
         <v>46169</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="19.5">
+    <row r="477" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A477" s="33">
         <v>46169</v>
       </c>
@@ -7316,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="19.5">
+    <row r="478" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A478" s="33">
         <v>46169</v>
       </c>
@@ -7327,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="19.5">
+    <row r="479" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A479" s="33">
         <v>46169</v>
       </c>
@@ -7338,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="19.5">
+    <row r="480" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A480" s="33">
         <v>46169</v>
       </c>
@@ -7349,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="19.5">
+    <row r="481" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A481" s="33">
         <v>46170</v>
       </c>
@@ -7360,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="19.5">
+    <row r="482" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A482" s="33">
         <v>46170</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="19.5">
+    <row r="483" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A483" s="33">
         <v>46170</v>
       </c>
@@ -7382,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="19.5">
+    <row r="484" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A484" s="33">
         <v>46170</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="19.5">
+    <row r="485" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A485" s="33">
         <v>46170</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="19.5">
+    <row r="486" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A486" s="33">
         <v>46170</v>
       </c>
@@ -7415,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="19.5">
+    <row r="487" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A487" s="33">
         <v>46171</v>
       </c>
@@ -7426,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="19.5">
+    <row r="488" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A488" s="33">
         <v>46171</v>
       </c>
@@ -7437,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="19.5">
+    <row r="489" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A489" s="33">
         <v>46171</v>
       </c>
@@ -7448,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="19.5">
+    <row r="490" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A490" s="33">
         <v>46171</v>
       </c>
@@ -7459,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="19.5">
+    <row r="491" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A491" s="33">
         <v>46171</v>
       </c>
@@ -7470,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="19.5">
+    <row r="492" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A492" s="33">
         <v>46171</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="19.5">
+    <row r="493" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A493" s="33">
         <v>46172</v>
       </c>
@@ -7492,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="19.5">
+    <row r="494" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A494" s="33">
         <v>46172</v>
       </c>
@@ -7503,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="19.5">
+    <row r="495" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A495" s="33">
         <v>46172</v>
       </c>
@@ -7514,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="19.5">
+    <row r="496" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A496" s="33">
         <v>46172</v>
       </c>
@@ -7525,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="19.5">
+    <row r="497" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A497" s="33">
         <v>46173</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="19.5">
+    <row r="498" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A498" s="33">
         <v>46173</v>
       </c>
@@ -7547,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="19.5">
+    <row r="499" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A499" s="33">
         <v>46173</v>
       </c>
@@ -7558,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="19.5">
+    <row r="500" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A500" s="33">
         <v>46173</v>
       </c>
@@ -7580,13 +7577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AL1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="21">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7628,7 +7625,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7662,7 +7659,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="str">
@@ -7790,7 +7787,7 @@
         <v>二</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +7919,7 @@
         <v>46112</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -8054,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1683</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1660</v>
       </c>
@@ -8318,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8450,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -8714,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +8843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -8978,7 +8975,7 @@
         <v>12-8</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -9242,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -9377,7 +9374,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C5:AG15">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>WEEKDAY(C$4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9387,7 +9384,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0400-000003000000}">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0400-000003000000}">
             <xm:f>COUNTIF(節日!$A$2:$B$17,C$4)=1</xm:f>
             <x14:dxf>
               <fill>
@@ -9414,7 +9411,7 @@
       <selection pane="topRight" activeCell="BP17" sqref="BP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="11"/>
     <col min="2" max="12" width="10.125" style="11" customWidth="1"/>
@@ -9426,7 +9423,7 @@
     <col min="367" max="16384" width="13.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" s="10" customFormat="1">
+    <row r="1" spans="1:366" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -10526,7 +10523,7 @@
         <v>46387</v>
       </c>
     </row>
-    <row r="2" spans="1:366" s="11" customFormat="1">
+    <row r="2" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -11014,7 +11011,7 @@
       <c r="NA2" s="15"/>
       <c r="NB2" s="15"/>
     </row>
-    <row r="3" spans="1:366" s="11" customFormat="1">
+    <row r="3" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
@@ -11508,7 +11505,7 @@
       <c r="NA3" s="15"/>
       <c r="NB3" s="15"/>
     </row>
-    <row r="4" spans="1:366" s="11" customFormat="1">
+    <row r="4" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -12006,7 +12003,7 @@
       <c r="NA4" s="15"/>
       <c r="NB4" s="15"/>
     </row>
-    <row r="5" spans="1:366" s="11" customFormat="1">
+    <row r="5" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -12648,7 +12645,7 @@
       <c r="NA5" s="15"/>
       <c r="NB5" s="15"/>
     </row>
-    <row r="6" spans="1:366" s="11" customFormat="1">
+    <row r="6" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -13140,7 +13137,7 @@
       <c r="NA6" s="15"/>
       <c r="NB6" s="15"/>
     </row>
-    <row r="7" spans="1:366" s="11" customFormat="1">
+    <row r="7" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -13778,7 +13775,7 @@
       <c r="NA7" s="15"/>
       <c r="NB7" s="15"/>
     </row>
-    <row r="8" spans="1:366" s="11" customFormat="1">
+    <row r="8" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -14422,7 +14419,7 @@
       <c r="NA8" s="15"/>
       <c r="NB8" s="15"/>
     </row>
-    <row r="9" spans="1:366" s="11" customFormat="1">
+    <row r="9" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -15058,7 +15055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:366" s="11" customFormat="1">
+    <row r="10" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
@@ -15694,7 +15691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:366" s="11" customFormat="1">
+    <row r="11" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
@@ -16328,7 +16325,7 @@
       <c r="NA11" s="15"/>
       <c r="NB11" s="15"/>
     </row>
-    <row r="12" spans="1:366" s="11" customFormat="1">
+    <row r="12" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
@@ -16960,48 +16957,48 @@
       <c r="NA12" s="15"/>
       <c r="NB12" s="15"/>
     </row>
-    <row r="13" spans="1:366" s="11" customFormat="1"/>
-    <row r="14" spans="1:366" s="11" customFormat="1"/>
-    <row r="15" spans="1:366" s="11" customFormat="1"/>
-    <row r="16" spans="1:366" s="11" customFormat="1"/>
-    <row r="17" spans="1:68" s="11" customFormat="1">
+    <row r="13" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:366" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="BP17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="11" customFormat="1"/>
-    <row r="19" spans="1:68" s="11" customFormat="1"/>
-    <row r="20" spans="1:68" s="11" customFormat="1">
+    <row r="18" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G20" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:68" s="11" customFormat="1"/>
-    <row r="22" spans="1:68" s="11" customFormat="1">
+    <row r="21" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:68" s="11" customFormat="1">
+    <row r="23" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:68" s="11" customFormat="1">
+    <row r="24" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:68" s="11" customFormat="1">
+    <row r="25" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:68" s="11" customFormat="1">
+    <row r="26" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:68" s="11" customFormat="1">
+    <row r="27" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
@@ -17013,7 +17010,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
     </row>
-    <row r="28" spans="1:68" s="11" customFormat="1">
+    <row r="28" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
@@ -17021,3100 +17018,3100 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="11" customFormat="1">
+    <row r="29" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:68" s="11" customFormat="1">
+    <row r="30" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:68" s="11" customFormat="1">
+    <row r="31" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:68" s="11" customFormat="1">
+    <row r="32" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>56</v>
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" s="11" customFormat="1">
+    <row r="33" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>57</v>
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" s="11" customFormat="1">
+    <row r="34" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" s="11" customFormat="1">
+    <row r="35" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" s="11" customFormat="1">
+    <row r="36" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>66</v>
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" s="11" customFormat="1">
+    <row r="37" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" s="11" customFormat="1">
+    <row r="38" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>67</v>
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" s="11" customFormat="1">
+    <row r="39" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>68</v>
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" s="11" customFormat="1">
+    <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>69</v>
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" s="11" customFormat="1">
+    <row r="41" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>70</v>
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" s="11" customFormat="1">
+    <row r="42" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>71</v>
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" s="11" customFormat="1">
+    <row r="43" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>72</v>
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" s="11" customFormat="1">
+    <row r="44" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>73</v>
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" s="11" customFormat="1">
+    <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" s="11" customFormat="1">
+    <row r="46" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" s="11" customFormat="1">
+    <row r="47" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" s="11" customFormat="1">
+    <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="13:13" s="11" customFormat="1">
+    <row r="49" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="13:13" s="11" customFormat="1">
+    <row r="50" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="13:13" s="11" customFormat="1">
+    <row r="51" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="13:13" s="11" customFormat="1">
+    <row r="52" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="13:13" s="11" customFormat="1">
+    <row r="53" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="13:13" s="11" customFormat="1">
+    <row r="54" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="13:13" s="11" customFormat="1">
+    <row r="55" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="13:13" s="11" customFormat="1">
+    <row r="56" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="13:13" s="11" customFormat="1">
+    <row r="57" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="13:13" s="11" customFormat="1">
+    <row r="58" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="13:13" s="11" customFormat="1">
+    <row r="59" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="13:13" s="11" customFormat="1">
+    <row r="60" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="13:13" s="11" customFormat="1">
+    <row r="61" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="13:13" s="11" customFormat="1">
+    <row r="62" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="13:13" s="11" customFormat="1">
+    <row r="63" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="13:13" s="11" customFormat="1">
+    <row r="64" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="13:13" s="11" customFormat="1">
+    <row r="65" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="13:13" s="11" customFormat="1">
+    <row r="66" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="13:13" s="11" customFormat="1">
+    <row r="67" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="13:13" s="11" customFormat="1">
+    <row r="68" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="13:13" s="11" customFormat="1">
+    <row r="69" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="13:13" s="11" customFormat="1">
+    <row r="70" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="13:13" s="11" customFormat="1">
+    <row r="71" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="13:13" s="11" customFormat="1">
+    <row r="72" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="13:13" s="11" customFormat="1">
+    <row r="73" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="13:13" s="11" customFormat="1">
+    <row r="74" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="13:13" s="11" customFormat="1">
+    <row r="75" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="13:13" s="11" customFormat="1">
+    <row r="76" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="13:13" s="11" customFormat="1">
+    <row r="77" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="13:13" s="11" customFormat="1">
+    <row r="78" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="13:13" s="11" customFormat="1">
+    <row r="79" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="13:13" s="11" customFormat="1">
+    <row r="80" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="13:13" s="11" customFormat="1">
+    <row r="81" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="13:13" s="11" customFormat="1">
+    <row r="82" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="13:13" s="11" customFormat="1">
+    <row r="83" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="13:13" s="11" customFormat="1">
+    <row r="84" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="13:13" s="11" customFormat="1">
+    <row r="85" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="13:13" s="11" customFormat="1">
+    <row r="86" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="13:13" s="11" customFormat="1">
+    <row r="87" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="13:13" s="11" customFormat="1">
+    <row r="88" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="13:13" s="11" customFormat="1">
+    <row r="89" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="13:13" s="11" customFormat="1">
+    <row r="90" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="13:13" s="11" customFormat="1">
+    <row r="91" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="13:13" s="11" customFormat="1">
+    <row r="92" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="13:13" s="11" customFormat="1">
+    <row r="93" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="13:13" s="11" customFormat="1">
+    <row r="94" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="13:13" s="11" customFormat="1">
+    <row r="95" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="13:13" s="11" customFormat="1">
+    <row r="96" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="13:13" s="11" customFormat="1">
+    <row r="97" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="13:13" s="11" customFormat="1">
+    <row r="98" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="13:13" s="11" customFormat="1">
+    <row r="99" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="13:13" s="11" customFormat="1">
+    <row r="100" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="13:13" s="11" customFormat="1">
+    <row r="101" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="13:13" s="11" customFormat="1">
+    <row r="102" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="13:13" s="11" customFormat="1">
+    <row r="103" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="13:13" s="11" customFormat="1">
+    <row r="104" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="13:13" s="11" customFormat="1">
+    <row r="105" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M105" s="12"/>
     </row>
-    <row r="106" spans="13:13" s="11" customFormat="1">
+    <row r="106" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="13:13" s="11" customFormat="1">
+    <row r="107" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="13:13" s="11" customFormat="1">
+    <row r="108" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="13:13" s="11" customFormat="1">
+    <row r="109" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="13:13" s="11" customFormat="1">
+    <row r="110" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="13:13" s="11" customFormat="1">
+    <row r="111" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="13:13" s="11" customFormat="1">
+    <row r="112" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="13:13" s="11" customFormat="1">
+    <row r="113" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M113" s="12"/>
     </row>
-    <row r="114" spans="13:13" s="11" customFormat="1">
+    <row r="114" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="13:13" s="11" customFormat="1">
+    <row r="115" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="13:13" s="11" customFormat="1">
+    <row r="116" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="13:13" s="11" customFormat="1">
+    <row r="117" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="13:13" s="11" customFormat="1">
+    <row r="118" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="13:13" s="11" customFormat="1">
+    <row r="119" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="13:13" s="11" customFormat="1">
+    <row r="120" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="13:13" s="11" customFormat="1">
+    <row r="121" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M121" s="12"/>
     </row>
-    <row r="122" spans="13:13" s="11" customFormat="1">
+    <row r="122" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="13:13" s="11" customFormat="1">
+    <row r="123" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="13:13" s="11" customFormat="1">
+    <row r="124" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="13:13" s="11" customFormat="1">
+    <row r="125" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="13:13" s="11" customFormat="1">
+    <row r="126" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="13:13" s="11" customFormat="1">
+    <row r="127" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="13:13" s="11" customFormat="1">
+    <row r="128" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="13:13" s="11" customFormat="1">
+    <row r="129" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="13:13" s="11" customFormat="1">
+    <row r="130" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="13:13" s="11" customFormat="1">
+    <row r="131" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="13:13" s="11" customFormat="1">
+    <row r="132" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="13:13" s="11" customFormat="1">
+    <row r="133" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="13:13" s="11" customFormat="1">
+    <row r="134" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="13:13" s="11" customFormat="1">
+    <row r="135" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="13:13" s="11" customFormat="1">
+    <row r="136" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="13:13" s="11" customFormat="1">
+    <row r="137" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M137" s="12"/>
     </row>
-    <row r="138" spans="13:13" s="11" customFormat="1">
+    <row r="138" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="13:13" s="11" customFormat="1">
+    <row r="139" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="13:13" s="11" customFormat="1">
+    <row r="140" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="13:13" s="11" customFormat="1">
+    <row r="141" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="13:13" s="11" customFormat="1">
+    <row r="142" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="13:13" s="11" customFormat="1">
+    <row r="143" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="13:13" s="11" customFormat="1">
+    <row r="144" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="13:13" s="11" customFormat="1">
+    <row r="145" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M145" s="12"/>
     </row>
-    <row r="146" spans="13:13" s="11" customFormat="1">
+    <row r="146" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="13:13" s="11" customFormat="1">
+    <row r="147" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="13:13" s="11" customFormat="1">
+    <row r="148" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="13:13" s="11" customFormat="1">
+    <row r="149" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="13:13" s="11" customFormat="1">
+    <row r="150" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="13:13" s="11" customFormat="1">
+    <row r="151" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M151" s="12"/>
     </row>
-    <row r="152" spans="13:13" s="11" customFormat="1">
+    <row r="152" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M152" s="12"/>
     </row>
-    <row r="153" spans="13:13" s="11" customFormat="1">
+    <row r="153" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M153" s="12"/>
     </row>
-    <row r="154" spans="13:13" s="11" customFormat="1">
+    <row r="154" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M154" s="12"/>
     </row>
-    <row r="155" spans="13:13" s="11" customFormat="1">
+    <row r="155" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M155" s="12"/>
     </row>
-    <row r="156" spans="13:13" s="11" customFormat="1">
+    <row r="156" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M156" s="12"/>
     </row>
-    <row r="157" spans="13:13" s="11" customFormat="1">
+    <row r="157" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="13:13" s="11" customFormat="1">
+    <row r="158" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M158" s="12"/>
     </row>
-    <row r="159" spans="13:13" s="11" customFormat="1">
+    <row r="159" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M159" s="12"/>
     </row>
-    <row r="160" spans="13:13" s="11" customFormat="1">
+    <row r="160" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M160" s="12"/>
     </row>
-    <row r="161" spans="13:13" s="11" customFormat="1">
+    <row r="161" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M161" s="12"/>
     </row>
-    <row r="162" spans="13:13" s="11" customFormat="1">
+    <row r="162" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="13:13" s="11" customFormat="1">
+    <row r="163" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="13:13" s="11" customFormat="1">
+    <row r="164" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="13:13" s="11" customFormat="1">
+    <row r="165" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="13:13" s="11" customFormat="1">
+    <row r="166" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="13:13" s="11" customFormat="1">
+    <row r="167" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="13:13" s="11" customFormat="1">
+    <row r="168" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="13:13" s="11" customFormat="1">
+    <row r="169" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M169" s="12"/>
     </row>
-    <row r="170" spans="13:13" s="11" customFormat="1">
+    <row r="170" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="13:13" s="11" customFormat="1">
+    <row r="171" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="13:13" s="11" customFormat="1">
+    <row r="172" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="13:13" s="11" customFormat="1">
+    <row r="173" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="13:13" s="11" customFormat="1">
+    <row r="174" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="13:13" s="11" customFormat="1">
+    <row r="175" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="13:13" s="11" customFormat="1">
+    <row r="176" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M176" s="12"/>
     </row>
-    <row r="177" spans="13:13" s="11" customFormat="1">
+    <row r="177" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M177" s="12"/>
     </row>
-    <row r="178" spans="13:13" s="11" customFormat="1">
+    <row r="178" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M178" s="12"/>
     </row>
-    <row r="179" spans="13:13" s="11" customFormat="1">
+    <row r="179" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M179" s="12"/>
     </row>
-    <row r="180" spans="13:13" s="11" customFormat="1">
+    <row r="180" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M180" s="12"/>
     </row>
-    <row r="181" spans="13:13" s="11" customFormat="1">
+    <row r="181" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M181" s="12"/>
     </row>
-    <row r="182" spans="13:13" s="11" customFormat="1">
+    <row r="182" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M182" s="12"/>
     </row>
-    <row r="183" spans="13:13" s="11" customFormat="1">
+    <row r="183" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M183" s="12"/>
     </row>
-    <row r="184" spans="13:13" s="11" customFormat="1">
+    <row r="184" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M184" s="12"/>
     </row>
-    <row r="185" spans="13:13" s="11" customFormat="1">
+    <row r="185" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M185" s="12"/>
     </row>
-    <row r="186" spans="13:13" s="11" customFormat="1">
+    <row r="186" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M186" s="12"/>
     </row>
-    <row r="187" spans="13:13" s="11" customFormat="1">
+    <row r="187" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M187" s="12"/>
     </row>
-    <row r="188" spans="13:13" s="11" customFormat="1">
+    <row r="188" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M188" s="12"/>
     </row>
-    <row r="189" spans="13:13" s="11" customFormat="1">
+    <row r="189" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M189" s="12"/>
     </row>
-    <row r="190" spans="13:13" s="11" customFormat="1">
+    <row r="190" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M190" s="12"/>
     </row>
-    <row r="191" spans="13:13" s="11" customFormat="1">
+    <row r="191" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M191" s="12"/>
     </row>
-    <row r="192" spans="13:13" s="11" customFormat="1">
+    <row r="192" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M192" s="12"/>
     </row>
-    <row r="193" spans="13:13" s="11" customFormat="1">
+    <row r="193" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M193" s="12"/>
     </row>
-    <row r="194" spans="13:13" s="11" customFormat="1">
+    <row r="194" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M194" s="12"/>
     </row>
-    <row r="195" spans="13:13" s="11" customFormat="1">
+    <row r="195" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M195" s="12"/>
     </row>
-    <row r="196" spans="13:13" s="11" customFormat="1">
+    <row r="196" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M196" s="12"/>
     </row>
-    <row r="197" spans="13:13" s="11" customFormat="1">
+    <row r="197" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M197" s="12"/>
     </row>
-    <row r="198" spans="13:13" s="11" customFormat="1">
+    <row r="198" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M198" s="12"/>
     </row>
-    <row r="199" spans="13:13" s="11" customFormat="1">
+    <row r="199" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M199" s="12"/>
     </row>
-    <row r="200" spans="13:13" s="11" customFormat="1">
+    <row r="200" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M200" s="12"/>
     </row>
-    <row r="201" spans="13:13" s="11" customFormat="1">
+    <row r="201" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M201" s="12"/>
     </row>
-    <row r="202" spans="13:13" s="11" customFormat="1">
+    <row r="202" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M202" s="12"/>
     </row>
-    <row r="203" spans="13:13" s="11" customFormat="1">
+    <row r="203" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M203" s="12"/>
     </row>
-    <row r="204" spans="13:13" s="11" customFormat="1">
+    <row r="204" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M204" s="12"/>
     </row>
-    <row r="205" spans="13:13" s="11" customFormat="1">
+    <row r="205" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M205" s="12"/>
     </row>
-    <row r="206" spans="13:13" s="11" customFormat="1">
+    <row r="206" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M206" s="12"/>
     </row>
-    <row r="207" spans="13:13" s="11" customFormat="1">
+    <row r="207" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M207" s="12"/>
     </row>
-    <row r="208" spans="13:13" s="11" customFormat="1">
+    <row r="208" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M208" s="12"/>
     </row>
-    <row r="209" spans="13:13" s="11" customFormat="1">
+    <row r="209" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M209" s="12"/>
     </row>
-    <row r="210" spans="13:13" s="11" customFormat="1">
+    <row r="210" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M210" s="12"/>
     </row>
-    <row r="211" spans="13:13" s="11" customFormat="1">
+    <row r="211" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M211" s="12"/>
     </row>
-    <row r="212" spans="13:13" s="11" customFormat="1">
+    <row r="212" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M212" s="12"/>
     </row>
-    <row r="213" spans="13:13" s="11" customFormat="1">
+    <row r="213" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M213" s="12"/>
     </row>
-    <row r="214" spans="13:13" s="11" customFormat="1">
+    <row r="214" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M214" s="12"/>
     </row>
-    <row r="215" spans="13:13" s="11" customFormat="1">
+    <row r="215" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M215" s="12"/>
     </row>
-    <row r="216" spans="13:13" s="11" customFormat="1">
+    <row r="216" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M216" s="12"/>
     </row>
-    <row r="217" spans="13:13" s="11" customFormat="1">
+    <row r="217" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M217" s="12"/>
     </row>
-    <row r="218" spans="13:13" s="11" customFormat="1">
+    <row r="218" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M218" s="12"/>
     </row>
-    <row r="219" spans="13:13" s="11" customFormat="1">
+    <row r="219" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M219" s="12"/>
     </row>
-    <row r="220" spans="13:13" s="11" customFormat="1">
+    <row r="220" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M220" s="12"/>
     </row>
-    <row r="221" spans="13:13" s="11" customFormat="1">
+    <row r="221" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M221" s="12"/>
     </row>
-    <row r="222" spans="13:13" s="11" customFormat="1">
+    <row r="222" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M222" s="12"/>
     </row>
-    <row r="223" spans="13:13" s="11" customFormat="1">
+    <row r="223" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M223" s="12"/>
     </row>
-    <row r="224" spans="13:13" s="11" customFormat="1">
+    <row r="224" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M224" s="12"/>
     </row>
-    <row r="225" spans="13:13" s="11" customFormat="1">
+    <row r="225" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M225" s="12"/>
     </row>
-    <row r="226" spans="13:13" s="11" customFormat="1">
+    <row r="226" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M226" s="12"/>
     </row>
-    <row r="227" spans="13:13" s="11" customFormat="1">
+    <row r="227" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M227" s="12"/>
     </row>
-    <row r="228" spans="13:13" s="11" customFormat="1">
+    <row r="228" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M228" s="12"/>
     </row>
-    <row r="229" spans="13:13" s="11" customFormat="1">
+    <row r="229" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M229" s="12"/>
     </row>
-    <row r="230" spans="13:13" s="11" customFormat="1">
+    <row r="230" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M230" s="12"/>
     </row>
-    <row r="231" spans="13:13" s="11" customFormat="1">
+    <row r="231" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M231" s="12"/>
     </row>
-    <row r="232" spans="13:13" s="11" customFormat="1">
+    <row r="232" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M232" s="12"/>
     </row>
-    <row r="233" spans="13:13" s="11" customFormat="1">
+    <row r="233" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M233" s="12"/>
     </row>
-    <row r="234" spans="13:13" s="11" customFormat="1">
+    <row r="234" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M234" s="12"/>
     </row>
-    <row r="235" spans="13:13" s="11" customFormat="1">
+    <row r="235" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M235" s="12"/>
     </row>
-    <row r="236" spans="13:13" s="11" customFormat="1">
+    <row r="236" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M236" s="12"/>
     </row>
-    <row r="237" spans="13:13" s="11" customFormat="1">
+    <row r="237" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M237" s="12"/>
     </row>
-    <row r="238" spans="13:13" s="11" customFormat="1">
+    <row r="238" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M238" s="12"/>
     </row>
-    <row r="239" spans="13:13" s="11" customFormat="1">
+    <row r="239" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M239" s="12"/>
     </row>
-    <row r="240" spans="13:13" s="11" customFormat="1">
+    <row r="240" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M240" s="12"/>
     </row>
-    <row r="241" spans="13:13" s="11" customFormat="1">
+    <row r="241" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M241" s="12"/>
     </row>
-    <row r="242" spans="13:13" s="11" customFormat="1">
+    <row r="242" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M242" s="12"/>
     </row>
-    <row r="243" spans="13:13" s="11" customFormat="1">
+    <row r="243" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M243" s="12"/>
     </row>
-    <row r="244" spans="13:13" s="11" customFormat="1">
+    <row r="244" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M244" s="12"/>
     </row>
-    <row r="245" spans="13:13" s="11" customFormat="1">
+    <row r="245" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M245" s="12"/>
     </row>
-    <row r="246" spans="13:13" s="11" customFormat="1">
+    <row r="246" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M246" s="12"/>
     </row>
-    <row r="247" spans="13:13" s="11" customFormat="1">
+    <row r="247" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M247" s="12"/>
     </row>
-    <row r="248" spans="13:13" s="11" customFormat="1">
+    <row r="248" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M248" s="12"/>
     </row>
-    <row r="249" spans="13:13" s="11" customFormat="1">
+    <row r="249" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M249" s="12"/>
     </row>
-    <row r="250" spans="13:13" s="11" customFormat="1">
+    <row r="250" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M250" s="12"/>
     </row>
-    <row r="251" spans="13:13" s="11" customFormat="1">
+    <row r="251" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M251" s="12"/>
     </row>
-    <row r="252" spans="13:13" s="11" customFormat="1">
+    <row r="252" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M252" s="12"/>
     </row>
-    <row r="253" spans="13:13" s="11" customFormat="1">
+    <row r="253" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M253" s="12"/>
     </row>
-    <row r="254" spans="13:13" s="11" customFormat="1">
+    <row r="254" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M254" s="12"/>
     </row>
-    <row r="255" spans="13:13" s="11" customFormat="1">
+    <row r="255" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M255" s="12"/>
     </row>
-    <row r="256" spans="13:13" s="11" customFormat="1">
+    <row r="256" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M256" s="12"/>
     </row>
-    <row r="257" spans="13:13" s="11" customFormat="1">
+    <row r="257" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M257" s="12"/>
     </row>
-    <row r="258" spans="13:13" s="11" customFormat="1">
+    <row r="258" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M258" s="12"/>
     </row>
-    <row r="259" spans="13:13" s="11" customFormat="1">
+    <row r="259" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M259" s="12"/>
     </row>
-    <row r="260" spans="13:13" s="11" customFormat="1">
+    <row r="260" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M260" s="12"/>
     </row>
-    <row r="261" spans="13:13" s="11" customFormat="1">
+    <row r="261" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M261" s="12"/>
     </row>
-    <row r="262" spans="13:13" s="11" customFormat="1">
+    <row r="262" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M262" s="12"/>
     </row>
-    <row r="263" spans="13:13" s="11" customFormat="1">
+    <row r="263" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M263" s="12"/>
     </row>
-    <row r="264" spans="13:13" s="11" customFormat="1">
+    <row r="264" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M264" s="12"/>
     </row>
-    <row r="265" spans="13:13" s="11" customFormat="1">
+    <row r="265" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M265" s="12"/>
     </row>
-    <row r="266" spans="13:13" s="11" customFormat="1">
+    <row r="266" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M266" s="12"/>
     </row>
-    <row r="267" spans="13:13" s="11" customFormat="1">
+    <row r="267" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M267" s="12"/>
     </row>
-    <row r="268" spans="13:13" s="11" customFormat="1">
+    <row r="268" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M268" s="12"/>
     </row>
-    <row r="269" spans="13:13" s="11" customFormat="1">
+    <row r="269" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M269" s="12"/>
     </row>
-    <row r="270" spans="13:13" s="11" customFormat="1">
+    <row r="270" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M270" s="12"/>
     </row>
-    <row r="271" spans="13:13" s="11" customFormat="1">
+    <row r="271" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M271" s="12"/>
     </row>
-    <row r="272" spans="13:13" s="11" customFormat="1">
+    <row r="272" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M272" s="12"/>
     </row>
-    <row r="273" spans="13:13" s="11" customFormat="1">
+    <row r="273" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M273" s="12"/>
     </row>
-    <row r="274" spans="13:13" s="11" customFormat="1">
+    <row r="274" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M274" s="12"/>
     </row>
-    <row r="275" spans="13:13" s="11" customFormat="1">
+    <row r="275" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M275" s="12"/>
     </row>
-    <row r="276" spans="13:13" s="11" customFormat="1">
+    <row r="276" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M276" s="12"/>
     </row>
-    <row r="277" spans="13:13" s="11" customFormat="1">
+    <row r="277" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M277" s="12"/>
     </row>
-    <row r="278" spans="13:13" s="11" customFormat="1">
+    <row r="278" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M278" s="12"/>
     </row>
-    <row r="279" spans="13:13" s="11" customFormat="1">
+    <row r="279" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M279" s="12"/>
     </row>
-    <row r="280" spans="13:13" s="11" customFormat="1">
+    <row r="280" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M280" s="12"/>
     </row>
-    <row r="281" spans="13:13" s="11" customFormat="1">
+    <row r="281" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M281" s="12"/>
     </row>
-    <row r="282" spans="13:13" s="11" customFormat="1">
+    <row r="282" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M282" s="12"/>
     </row>
-    <row r="283" spans="13:13" s="11" customFormat="1">
+    <row r="283" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M283" s="12"/>
     </row>
-    <row r="284" spans="13:13" s="11" customFormat="1">
+    <row r="284" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M284" s="12"/>
     </row>
-    <row r="285" spans="13:13" s="11" customFormat="1">
+    <row r="285" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M285" s="12"/>
     </row>
-    <row r="286" spans="13:13" s="11" customFormat="1">
+    <row r="286" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M286" s="12"/>
     </row>
-    <row r="287" spans="13:13" s="11" customFormat="1">
+    <row r="287" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M287" s="12"/>
     </row>
-    <row r="288" spans="13:13" s="11" customFormat="1">
+    <row r="288" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M288" s="12"/>
     </row>
-    <row r="289" spans="13:13" s="11" customFormat="1">
+    <row r="289" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M289" s="12"/>
     </row>
-    <row r="290" spans="13:13" s="11" customFormat="1">
+    <row r="290" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M290" s="12"/>
     </row>
-    <row r="291" spans="13:13" s="11" customFormat="1">
+    <row r="291" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M291" s="12"/>
     </row>
-    <row r="292" spans="13:13" s="11" customFormat="1">
+    <row r="292" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M292" s="12"/>
     </row>
-    <row r="293" spans="13:13" s="11" customFormat="1">
+    <row r="293" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M293" s="12"/>
     </row>
-    <row r="294" spans="13:13" s="11" customFormat="1">
+    <row r="294" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M294" s="12"/>
     </row>
-    <row r="295" spans="13:13" s="11" customFormat="1">
+    <row r="295" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M295" s="12"/>
     </row>
-    <row r="296" spans="13:13" s="11" customFormat="1">
+    <row r="296" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M296" s="12"/>
     </row>
-    <row r="297" spans="13:13" s="11" customFormat="1">
+    <row r="297" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M297" s="12"/>
     </row>
-    <row r="298" spans="13:13" s="11" customFormat="1">
+    <row r="298" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M298" s="12"/>
     </row>
-    <row r="299" spans="13:13" s="11" customFormat="1">
+    <row r="299" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M299" s="12"/>
     </row>
-    <row r="300" spans="13:13" s="11" customFormat="1">
+    <row r="300" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M300" s="12"/>
     </row>
-    <row r="301" spans="13:13" s="11" customFormat="1">
+    <row r="301" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M301" s="12"/>
     </row>
-    <row r="302" spans="13:13" s="11" customFormat="1">
+    <row r="302" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M302" s="12"/>
     </row>
-    <row r="303" spans="13:13" s="11" customFormat="1">
+    <row r="303" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M303" s="12"/>
     </row>
-    <row r="304" spans="13:13" s="11" customFormat="1">
+    <row r="304" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M304" s="12"/>
     </row>
-    <row r="305" spans="13:13" s="11" customFormat="1">
+    <row r="305" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M305" s="12"/>
     </row>
-    <row r="306" spans="13:13" s="11" customFormat="1">
+    <row r="306" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M306" s="12"/>
     </row>
-    <row r="307" spans="13:13" s="11" customFormat="1">
+    <row r="307" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M307" s="12"/>
     </row>
-    <row r="308" spans="13:13" s="11" customFormat="1">
+    <row r="308" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M308" s="12"/>
     </row>
-    <row r="309" spans="13:13" s="11" customFormat="1">
+    <row r="309" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M309" s="12"/>
     </row>
-    <row r="310" spans="13:13" s="11" customFormat="1">
+    <row r="310" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M310" s="12"/>
     </row>
-    <row r="311" spans="13:13" s="11" customFormat="1">
+    <row r="311" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M311" s="12"/>
     </row>
-    <row r="312" spans="13:13" s="11" customFormat="1">
+    <row r="312" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M312" s="12"/>
     </row>
-    <row r="313" spans="13:13" s="11" customFormat="1">
+    <row r="313" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M313" s="12"/>
     </row>
-    <row r="314" spans="13:13" s="11" customFormat="1">
+    <row r="314" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M314" s="12"/>
     </row>
-    <row r="315" spans="13:13" s="11" customFormat="1">
+    <row r="315" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M315" s="12"/>
     </row>
-    <row r="316" spans="13:13" s="11" customFormat="1">
+    <row r="316" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M316" s="12"/>
     </row>
-    <row r="317" spans="13:13" s="11" customFormat="1">
+    <row r="317" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M317" s="12"/>
     </row>
-    <row r="318" spans="13:13" s="11" customFormat="1">
+    <row r="318" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M318" s="12"/>
     </row>
-    <row r="319" spans="13:13" s="11" customFormat="1">
+    <row r="319" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M319" s="12"/>
     </row>
-    <row r="320" spans="13:13" s="11" customFormat="1">
+    <row r="320" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M320" s="12"/>
     </row>
-    <row r="321" spans="13:13" s="11" customFormat="1">
+    <row r="321" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M321" s="12"/>
     </row>
-    <row r="322" spans="13:13" s="11" customFormat="1">
+    <row r="322" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M322" s="12"/>
     </row>
-    <row r="323" spans="13:13" s="11" customFormat="1">
+    <row r="323" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M323" s="12"/>
     </row>
-    <row r="324" spans="13:13" s="11" customFormat="1">
+    <row r="324" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M324" s="12"/>
     </row>
-    <row r="325" spans="13:13" s="11" customFormat="1">
+    <row r="325" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M325" s="12"/>
     </row>
-    <row r="326" spans="13:13" s="11" customFormat="1">
+    <row r="326" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M326" s="12"/>
     </row>
-    <row r="327" spans="13:13" s="11" customFormat="1">
+    <row r="327" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M327" s="12"/>
     </row>
-    <row r="328" spans="13:13" s="11" customFormat="1">
+    <row r="328" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M328" s="12"/>
     </row>
-    <row r="329" spans="13:13" s="11" customFormat="1">
+    <row r="329" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M329" s="12"/>
     </row>
-    <row r="330" spans="13:13" s="11" customFormat="1">
+    <row r="330" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M330" s="12"/>
     </row>
-    <row r="331" spans="13:13" s="11" customFormat="1">
+    <row r="331" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M331" s="12"/>
     </row>
-    <row r="332" spans="13:13" s="11" customFormat="1">
+    <row r="332" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M332" s="12"/>
     </row>
-    <row r="333" spans="13:13" s="11" customFormat="1">
+    <row r="333" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M333" s="12"/>
     </row>
-    <row r="334" spans="13:13" s="11" customFormat="1">
+    <row r="334" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M334" s="12"/>
     </row>
-    <row r="335" spans="13:13" s="11" customFormat="1">
+    <row r="335" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M335" s="12"/>
     </row>
-    <row r="336" spans="13:13" s="11" customFormat="1">
+    <row r="336" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M336" s="12"/>
     </row>
-    <row r="337" spans="13:13" s="11" customFormat="1">
+    <row r="337" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M337" s="12"/>
     </row>
-    <row r="338" spans="13:13" s="11" customFormat="1">
+    <row r="338" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M338" s="12"/>
     </row>
-    <row r="339" spans="13:13" s="11" customFormat="1">
+    <row r="339" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M339" s="12"/>
     </row>
-    <row r="340" spans="13:13" s="11" customFormat="1">
+    <row r="340" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M340" s="12"/>
     </row>
-    <row r="341" spans="13:13" s="11" customFormat="1">
+    <row r="341" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M341" s="12"/>
     </row>
-    <row r="342" spans="13:13" s="11" customFormat="1">
+    <row r="342" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M342" s="12"/>
     </row>
-    <row r="343" spans="13:13" s="11" customFormat="1">
+    <row r="343" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M343" s="12"/>
     </row>
-    <row r="344" spans="13:13" s="11" customFormat="1">
+    <row r="344" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M344" s="12"/>
     </row>
-    <row r="345" spans="13:13" s="11" customFormat="1">
+    <row r="345" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M345" s="12"/>
     </row>
-    <row r="346" spans="13:13" s="11" customFormat="1">
+    <row r="346" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M346" s="12"/>
     </row>
-    <row r="347" spans="13:13" s="11" customFormat="1">
+    <row r="347" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M347" s="12"/>
     </row>
-    <row r="348" spans="13:13" s="11" customFormat="1">
+    <row r="348" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M348" s="12"/>
     </row>
-    <row r="349" spans="13:13" s="11" customFormat="1">
+    <row r="349" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M349" s="12"/>
     </row>
-    <row r="350" spans="13:13" s="11" customFormat="1">
+    <row r="350" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M350" s="12"/>
     </row>
-    <row r="351" spans="13:13" s="11" customFormat="1">
+    <row r="351" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M351" s="12"/>
     </row>
-    <row r="352" spans="13:13" s="11" customFormat="1">
+    <row r="352" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M352" s="12"/>
     </row>
-    <row r="353" spans="13:13" s="11" customFormat="1">
+    <row r="353" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M353" s="12"/>
     </row>
-    <row r="354" spans="13:13" s="11" customFormat="1">
+    <row r="354" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M354" s="12"/>
     </row>
-    <row r="355" spans="13:13" s="11" customFormat="1">
+    <row r="355" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M355" s="12"/>
     </row>
-    <row r="356" spans="13:13" s="11" customFormat="1">
+    <row r="356" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M356" s="12"/>
     </row>
-    <row r="357" spans="13:13" s="11" customFormat="1">
+    <row r="357" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M357" s="12"/>
     </row>
-    <row r="358" spans="13:13" s="11" customFormat="1">
+    <row r="358" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M358" s="12"/>
     </row>
-    <row r="359" spans="13:13" s="11" customFormat="1">
+    <row r="359" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M359" s="12"/>
     </row>
-    <row r="360" spans="13:13" s="11" customFormat="1">
+    <row r="360" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M360" s="12"/>
     </row>
-    <row r="361" spans="13:13" s="11" customFormat="1">
+    <row r="361" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M361" s="12"/>
     </row>
-    <row r="362" spans="13:13" s="11" customFormat="1">
+    <row r="362" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M362" s="12"/>
     </row>
-    <row r="363" spans="13:13" s="11" customFormat="1">
+    <row r="363" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M363" s="12"/>
     </row>
-    <row r="364" spans="13:13" s="11" customFormat="1">
+    <row r="364" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M364" s="12"/>
     </row>
-    <row r="365" spans="13:13" s="11" customFormat="1">
+    <row r="365" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M365" s="12"/>
     </row>
-    <row r="366" spans="13:13" s="11" customFormat="1">
+    <row r="366" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M366" s="12"/>
     </row>
-    <row r="367" spans="13:13" s="11" customFormat="1">
+    <row r="367" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M367" s="12"/>
     </row>
-    <row r="368" spans="13:13" s="11" customFormat="1">
+    <row r="368" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M368" s="12"/>
     </row>
-    <row r="369" spans="13:13" s="11" customFormat="1">
+    <row r="369" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M369" s="12"/>
     </row>
-    <row r="370" spans="13:13" s="11" customFormat="1">
+    <row r="370" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M370" s="12"/>
     </row>
-    <row r="371" spans="13:13" s="11" customFormat="1">
+    <row r="371" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M371" s="12"/>
     </row>
-    <row r="372" spans="13:13" s="11" customFormat="1">
+    <row r="372" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M372" s="12"/>
     </row>
-    <row r="373" spans="13:13" s="11" customFormat="1">
+    <row r="373" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M373" s="12"/>
     </row>
-    <row r="374" spans="13:13" s="11" customFormat="1">
+    <row r="374" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M374" s="12"/>
     </row>
-    <row r="375" spans="13:13" s="11" customFormat="1">
+    <row r="375" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M375" s="12"/>
     </row>
-    <row r="376" spans="13:13" s="11" customFormat="1">
+    <row r="376" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M376" s="12"/>
     </row>
-    <row r="377" spans="13:13" s="11" customFormat="1">
+    <row r="377" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M377" s="12"/>
     </row>
-    <row r="378" spans="13:13" s="11" customFormat="1">
+    <row r="378" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M378" s="12"/>
     </row>
-    <row r="379" spans="13:13" s="11" customFormat="1">
+    <row r="379" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M379" s="12"/>
     </row>
-    <row r="380" spans="13:13" s="11" customFormat="1">
+    <row r="380" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M380" s="12"/>
     </row>
-    <row r="381" spans="13:13" s="11" customFormat="1">
+    <row r="381" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M381" s="12"/>
     </row>
-    <row r="382" spans="13:13" s="11" customFormat="1">
+    <row r="382" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M382" s="12"/>
     </row>
-    <row r="383" spans="13:13" s="11" customFormat="1">
+    <row r="383" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M383" s="12"/>
     </row>
-    <row r="384" spans="13:13" s="11" customFormat="1">
+    <row r="384" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M384" s="12"/>
     </row>
-    <row r="385" spans="13:13" s="11" customFormat="1">
+    <row r="385" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M385" s="12"/>
     </row>
-    <row r="386" spans="13:13" s="11" customFormat="1">
+    <row r="386" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M386" s="12"/>
     </row>
-    <row r="387" spans="13:13" s="11" customFormat="1">
+    <row r="387" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M387" s="12"/>
     </row>
-    <row r="388" spans="13:13" s="11" customFormat="1">
+    <row r="388" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M388" s="12"/>
     </row>
-    <row r="389" spans="13:13" s="11" customFormat="1">
+    <row r="389" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M389" s="12"/>
     </row>
-    <row r="390" spans="13:13" s="11" customFormat="1">
+    <row r="390" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M390" s="12"/>
     </row>
-    <row r="391" spans="13:13" s="11" customFormat="1">
+    <row r="391" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M391" s="12"/>
     </row>
-    <row r="392" spans="13:13" s="11" customFormat="1">
+    <row r="392" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M392" s="12"/>
     </row>
-    <row r="393" spans="13:13" s="11" customFormat="1">
+    <row r="393" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M393" s="12"/>
     </row>
-    <row r="394" spans="13:13" s="11" customFormat="1">
+    <row r="394" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M394" s="12"/>
     </row>
-    <row r="395" spans="13:13" s="11" customFormat="1">
+    <row r="395" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M395" s="12"/>
     </row>
-    <row r="396" spans="13:13" s="11" customFormat="1">
+    <row r="396" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M396" s="12"/>
     </row>
-    <row r="397" spans="13:13" s="11" customFormat="1">
+    <row r="397" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M397" s="12"/>
     </row>
-    <row r="398" spans="13:13" s="11" customFormat="1">
+    <row r="398" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M398" s="12"/>
     </row>
-    <row r="399" spans="13:13" s="11" customFormat="1">
+    <row r="399" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M399" s="12"/>
     </row>
-    <row r="400" spans="13:13" s="11" customFormat="1">
+    <row r="400" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M400" s="12"/>
     </row>
-    <row r="401" spans="13:13" s="11" customFormat="1">
+    <row r="401" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M401" s="12"/>
     </row>
-    <row r="402" spans="13:13" s="11" customFormat="1">
+    <row r="402" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M402" s="12"/>
     </row>
-    <row r="403" spans="13:13" s="11" customFormat="1">
+    <row r="403" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M403" s="12"/>
     </row>
-    <row r="404" spans="13:13" s="11" customFormat="1">
+    <row r="404" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M404" s="12"/>
     </row>
-    <row r="405" spans="13:13" s="11" customFormat="1">
+    <row r="405" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M405" s="12"/>
     </row>
-    <row r="406" spans="13:13" s="11" customFormat="1">
+    <row r="406" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M406" s="12"/>
     </row>
-    <row r="407" spans="13:13" s="11" customFormat="1">
+    <row r="407" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M407" s="12"/>
     </row>
-    <row r="408" spans="13:13" s="11" customFormat="1">
+    <row r="408" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M408" s="12"/>
     </row>
-    <row r="409" spans="13:13" s="11" customFormat="1">
+    <row r="409" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M409" s="12"/>
     </row>
-    <row r="410" spans="13:13" s="11" customFormat="1">
+    <row r="410" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M410" s="12"/>
     </row>
-    <row r="411" spans="13:13" s="11" customFormat="1">
+    <row r="411" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M411" s="12"/>
     </row>
-    <row r="412" spans="13:13" s="11" customFormat="1">
+    <row r="412" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M412" s="12"/>
     </row>
-    <row r="413" spans="13:13" s="11" customFormat="1">
+    <row r="413" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M413" s="12"/>
     </row>
-    <row r="414" spans="13:13" s="11" customFormat="1">
+    <row r="414" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M414" s="12"/>
     </row>
-    <row r="415" spans="13:13" s="11" customFormat="1">
+    <row r="415" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M415" s="12"/>
     </row>
-    <row r="416" spans="13:13" s="11" customFormat="1">
+    <row r="416" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M416" s="12"/>
     </row>
-    <row r="417" spans="13:13" s="11" customFormat="1">
+    <row r="417" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M417" s="12"/>
     </row>
-    <row r="418" spans="13:13" s="11" customFormat="1">
+    <row r="418" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M418" s="12"/>
     </row>
-    <row r="419" spans="13:13" s="11" customFormat="1">
+    <row r="419" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M419" s="12"/>
     </row>
-    <row r="420" spans="13:13" s="11" customFormat="1">
+    <row r="420" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M420" s="12"/>
     </row>
-    <row r="421" spans="13:13" s="11" customFormat="1">
+    <row r="421" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M421" s="12"/>
     </row>
-    <row r="422" spans="13:13" s="11" customFormat="1">
+    <row r="422" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M422" s="12"/>
     </row>
-    <row r="423" spans="13:13" s="11" customFormat="1">
+    <row r="423" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M423" s="12"/>
     </row>
-    <row r="424" spans="13:13" s="11" customFormat="1">
+    <row r="424" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="13:13" s="11" customFormat="1">
+    <row r="425" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M425" s="12"/>
     </row>
-    <row r="426" spans="13:13" s="11" customFormat="1">
+    <row r="426" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M426" s="12"/>
     </row>
-    <row r="427" spans="13:13" s="11" customFormat="1">
+    <row r="427" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M427" s="12"/>
     </row>
-    <row r="428" spans="13:13" s="11" customFormat="1">
+    <row r="428" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M428" s="12"/>
     </row>
-    <row r="429" spans="13:13" s="11" customFormat="1">
+    <row r="429" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M429" s="12"/>
     </row>
-    <row r="430" spans="13:13" s="11" customFormat="1">
+    <row r="430" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M430" s="12"/>
     </row>
-    <row r="431" spans="13:13" s="11" customFormat="1">
+    <row r="431" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M431" s="12"/>
     </row>
-    <row r="432" spans="13:13" s="11" customFormat="1">
+    <row r="432" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M432" s="12"/>
     </row>
-    <row r="433" spans="13:13" s="11" customFormat="1">
+    <row r="433" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M433" s="12"/>
     </row>
-    <row r="434" spans="13:13" s="11" customFormat="1">
+    <row r="434" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M434" s="12"/>
     </row>
-    <row r="435" spans="13:13" s="11" customFormat="1">
+    <row r="435" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M435" s="12"/>
     </row>
-    <row r="436" spans="13:13" s="11" customFormat="1">
+    <row r="436" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M436" s="12"/>
     </row>
-    <row r="437" spans="13:13" s="11" customFormat="1">
+    <row r="437" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M437" s="12"/>
     </row>
-    <row r="438" spans="13:13" s="11" customFormat="1">
+    <row r="438" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M438" s="12"/>
     </row>
-    <row r="439" spans="13:13" s="11" customFormat="1">
+    <row r="439" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M439" s="12"/>
     </row>
-    <row r="440" spans="13:13" s="11" customFormat="1">
+    <row r="440" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M440" s="12"/>
     </row>
-    <row r="441" spans="13:13" s="11" customFormat="1">
+    <row r="441" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M441" s="12"/>
     </row>
-    <row r="442" spans="13:13" s="11" customFormat="1">
+    <row r="442" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M442" s="12"/>
     </row>
-    <row r="443" spans="13:13" s="11" customFormat="1">
+    <row r="443" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M443" s="12"/>
     </row>
-    <row r="444" spans="13:13" s="11" customFormat="1">
+    <row r="444" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M444" s="12"/>
     </row>
-    <row r="445" spans="13:13" s="11" customFormat="1">
+    <row r="445" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M445" s="12"/>
     </row>
-    <row r="446" spans="13:13" s="11" customFormat="1">
+    <row r="446" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M446" s="12"/>
     </row>
-    <row r="447" spans="13:13" s="11" customFormat="1">
+    <row r="447" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M447" s="12"/>
     </row>
-    <row r="448" spans="13:13" s="11" customFormat="1">
+    <row r="448" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M448" s="12"/>
     </row>
-    <row r="449" spans="13:13" s="11" customFormat="1">
+    <row r="449" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M449" s="12"/>
     </row>
-    <row r="450" spans="13:13" s="11" customFormat="1">
+    <row r="450" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M450" s="12"/>
     </row>
-    <row r="451" spans="13:13" s="11" customFormat="1">
+    <row r="451" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M451" s="12"/>
     </row>
-    <row r="452" spans="13:13" s="11" customFormat="1">
+    <row r="452" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M452" s="12"/>
     </row>
-    <row r="453" spans="13:13" s="11" customFormat="1">
+    <row r="453" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M453" s="12"/>
     </row>
-    <row r="454" spans="13:13" s="11" customFormat="1">
+    <row r="454" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M454" s="12"/>
     </row>
-    <row r="455" spans="13:13" s="11" customFormat="1">
+    <row r="455" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M455" s="12"/>
     </row>
-    <row r="456" spans="13:13" s="11" customFormat="1">
+    <row r="456" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M456" s="12"/>
     </row>
-    <row r="457" spans="13:13" s="11" customFormat="1">
+    <row r="457" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M457" s="12"/>
     </row>
-    <row r="458" spans="13:13" s="11" customFormat="1">
+    <row r="458" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M458" s="12"/>
     </row>
-    <row r="459" spans="13:13" s="11" customFormat="1">
+    <row r="459" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M459" s="12"/>
     </row>
-    <row r="460" spans="13:13" s="11" customFormat="1">
+    <row r="460" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M460" s="12"/>
     </row>
-    <row r="461" spans="13:13" s="11" customFormat="1">
+    <row r="461" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M461" s="12"/>
     </row>
-    <row r="462" spans="13:13" s="11" customFormat="1">
+    <row r="462" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M462" s="12"/>
     </row>
-    <row r="463" spans="13:13" s="11" customFormat="1">
+    <row r="463" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M463" s="12"/>
     </row>
-    <row r="464" spans="13:13" s="11" customFormat="1">
+    <row r="464" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M464" s="12"/>
     </row>
-    <row r="465" spans="13:13" s="11" customFormat="1">
+    <row r="465" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M465" s="12"/>
     </row>
-    <row r="466" spans="13:13" s="11" customFormat="1">
+    <row r="466" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M466" s="12"/>
     </row>
-    <row r="467" spans="13:13" s="11" customFormat="1">
+    <row r="467" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M467" s="12"/>
     </row>
-    <row r="468" spans="13:13" s="11" customFormat="1">
+    <row r="468" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M468" s="12"/>
     </row>
-    <row r="469" spans="13:13" s="11" customFormat="1">
+    <row r="469" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M469" s="12"/>
     </row>
-    <row r="470" spans="13:13" s="11" customFormat="1">
+    <row r="470" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M470" s="12"/>
     </row>
-    <row r="471" spans="13:13" s="11" customFormat="1">
+    <row r="471" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M471" s="12"/>
     </row>
-    <row r="472" spans="13:13" s="11" customFormat="1">
+    <row r="472" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M472" s="12"/>
     </row>
-    <row r="473" spans="13:13" s="11" customFormat="1">
+    <row r="473" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M473" s="12"/>
     </row>
-    <row r="474" spans="13:13" s="11" customFormat="1">
+    <row r="474" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M474" s="12"/>
     </row>
-    <row r="475" spans="13:13" s="11" customFormat="1">
+    <row r="475" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M475" s="12"/>
     </row>
-    <row r="476" spans="13:13" s="11" customFormat="1">
+    <row r="476" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M476" s="12"/>
     </row>
-    <row r="477" spans="13:13" s="11" customFormat="1">
+    <row r="477" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M477" s="12"/>
     </row>
-    <row r="478" spans="13:13" s="11" customFormat="1">
+    <row r="478" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M478" s="12"/>
     </row>
-    <row r="479" spans="13:13" s="11" customFormat="1">
+    <row r="479" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M479" s="12"/>
     </row>
-    <row r="480" spans="13:13" s="11" customFormat="1">
+    <row r="480" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M480" s="12"/>
     </row>
-    <row r="481" spans="13:13" s="11" customFormat="1">
+    <row r="481" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M481" s="12"/>
     </row>
-    <row r="482" spans="13:13" s="11" customFormat="1">
+    <row r="482" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M482" s="12"/>
     </row>
-    <row r="483" spans="13:13" s="11" customFormat="1">
+    <row r="483" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M483" s="12"/>
     </row>
-    <row r="484" spans="13:13" s="11" customFormat="1">
+    <row r="484" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M484" s="12"/>
     </row>
-    <row r="485" spans="13:13" s="11" customFormat="1">
+    <row r="485" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M485" s="12"/>
     </row>
-    <row r="486" spans="13:13" s="11" customFormat="1">
+    <row r="486" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M486" s="12"/>
     </row>
-    <row r="487" spans="13:13" s="11" customFormat="1">
+    <row r="487" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M487" s="12"/>
     </row>
-    <row r="488" spans="13:13" s="11" customFormat="1">
+    <row r="488" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M488" s="12"/>
     </row>
-    <row r="489" spans="13:13" s="11" customFormat="1">
+    <row r="489" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M489" s="12"/>
     </row>
-    <row r="490" spans="13:13" s="11" customFormat="1">
+    <row r="490" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M490" s="12"/>
     </row>
-    <row r="491" spans="13:13" s="11" customFormat="1">
+    <row r="491" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M491" s="12"/>
     </row>
-    <row r="492" spans="13:13" s="11" customFormat="1">
+    <row r="492" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M492" s="12"/>
     </row>
-    <row r="493" spans="13:13" s="11" customFormat="1">
+    <row r="493" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M493" s="12"/>
     </row>
-    <row r="494" spans="13:13" s="11" customFormat="1">
+    <row r="494" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M494" s="12"/>
     </row>
-    <row r="495" spans="13:13" s="11" customFormat="1">
+    <row r="495" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M495" s="12"/>
     </row>
-    <row r="496" spans="13:13" s="11" customFormat="1">
+    <row r="496" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M496" s="12"/>
     </row>
-    <row r="497" spans="13:13" s="11" customFormat="1">
+    <row r="497" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M497" s="12"/>
     </row>
-    <row r="498" spans="13:13" s="11" customFormat="1">
+    <row r="498" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M498" s="12"/>
     </row>
-    <row r="499" spans="13:13" s="11" customFormat="1">
+    <row r="499" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M499" s="12"/>
     </row>
-    <row r="500" spans="13:13" s="11" customFormat="1">
+    <row r="500" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M500" s="12"/>
     </row>
-    <row r="501" spans="13:13" s="11" customFormat="1">
+    <row r="501" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M501" s="12"/>
     </row>
-    <row r="502" spans="13:13" s="11" customFormat="1">
+    <row r="502" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M502" s="12"/>
     </row>
-    <row r="503" spans="13:13" s="11" customFormat="1">
+    <row r="503" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M503" s="12"/>
     </row>
-    <row r="504" spans="13:13" s="11" customFormat="1">
+    <row r="504" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M504" s="12"/>
     </row>
-    <row r="505" spans="13:13" s="11" customFormat="1">
+    <row r="505" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M505" s="12"/>
     </row>
-    <row r="506" spans="13:13" s="11" customFormat="1">
+    <row r="506" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M506" s="12"/>
     </row>
-    <row r="507" spans="13:13" s="11" customFormat="1">
+    <row r="507" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M507" s="12"/>
     </row>
-    <row r="508" spans="13:13" s="11" customFormat="1">
+    <row r="508" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M508" s="12"/>
     </row>
-    <row r="509" spans="13:13" s="11" customFormat="1">
+    <row r="509" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M509" s="12"/>
     </row>
-    <row r="510" spans="13:13" s="11" customFormat="1">
+    <row r="510" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M510" s="12"/>
     </row>
-    <row r="511" spans="13:13" s="11" customFormat="1">
+    <row r="511" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M511" s="12"/>
     </row>
-    <row r="512" spans="13:13" s="11" customFormat="1">
+    <row r="512" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M512" s="12"/>
     </row>
-    <row r="513" spans="13:13" s="11" customFormat="1">
+    <row r="513" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M513" s="12"/>
     </row>
-    <row r="514" spans="13:13" s="11" customFormat="1">
+    <row r="514" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M514" s="12"/>
     </row>
-    <row r="515" spans="13:13" s="11" customFormat="1">
+    <row r="515" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M515" s="12"/>
     </row>
-    <row r="516" spans="13:13" s="11" customFormat="1">
+    <row r="516" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M516" s="12"/>
     </row>
-    <row r="517" spans="13:13" s="11" customFormat="1">
+    <row r="517" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M517" s="12"/>
     </row>
-    <row r="518" spans="13:13" s="11" customFormat="1">
+    <row r="518" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M518" s="12"/>
     </row>
-    <row r="519" spans="13:13" s="11" customFormat="1">
+    <row r="519" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M519" s="12"/>
     </row>
-    <row r="520" spans="13:13" s="11" customFormat="1">
+    <row r="520" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M520" s="12"/>
     </row>
-    <row r="521" spans="13:13" s="11" customFormat="1">
+    <row r="521" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M521" s="12"/>
     </row>
-    <row r="522" spans="13:13" s="11" customFormat="1">
+    <row r="522" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M522" s="12"/>
     </row>
-    <row r="523" spans="13:13" s="11" customFormat="1">
+    <row r="523" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M523" s="12"/>
     </row>
-    <row r="524" spans="13:13" s="11" customFormat="1">
+    <row r="524" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M524" s="12"/>
     </row>
-    <row r="525" spans="13:13" s="11" customFormat="1">
+    <row r="525" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M525" s="12"/>
     </row>
-    <row r="526" spans="13:13" s="11" customFormat="1">
+    <row r="526" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M526" s="12"/>
     </row>
-    <row r="527" spans="13:13" s="11" customFormat="1">
+    <row r="527" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M527" s="12"/>
     </row>
-    <row r="528" spans="13:13" s="11" customFormat="1">
+    <row r="528" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M528" s="12"/>
     </row>
-    <row r="529" spans="13:13" s="11" customFormat="1">
+    <row r="529" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M529" s="12"/>
     </row>
-    <row r="530" spans="13:13" s="11" customFormat="1">
+    <row r="530" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M530" s="12"/>
     </row>
-    <row r="531" spans="13:13" s="11" customFormat="1">
+    <row r="531" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M531" s="12"/>
     </row>
-    <row r="532" spans="13:13" s="11" customFormat="1">
+    <row r="532" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M532" s="12"/>
     </row>
-    <row r="533" spans="13:13" s="11" customFormat="1">
+    <row r="533" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M533" s="12"/>
     </row>
-    <row r="534" spans="13:13" s="11" customFormat="1">
+    <row r="534" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M534" s="12"/>
     </row>
-    <row r="535" spans="13:13" s="11" customFormat="1">
+    <row r="535" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M535" s="12"/>
     </row>
-    <row r="536" spans="13:13" s="11" customFormat="1">
+    <row r="536" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M536" s="12"/>
     </row>
-    <row r="537" spans="13:13" s="11" customFormat="1">
+    <row r="537" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M537" s="12"/>
     </row>
-    <row r="538" spans="13:13" s="11" customFormat="1">
+    <row r="538" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M538" s="12"/>
     </row>
-    <row r="539" spans="13:13" s="11" customFormat="1">
+    <row r="539" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M539" s="12"/>
     </row>
-    <row r="540" spans="13:13" s="11" customFormat="1">
+    <row r="540" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M540" s="12"/>
     </row>
-    <row r="541" spans="13:13" s="11" customFormat="1">
+    <row r="541" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M541" s="12"/>
     </row>
-    <row r="542" spans="13:13" s="11" customFormat="1">
+    <row r="542" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M542" s="12"/>
     </row>
-    <row r="543" spans="13:13" s="11" customFormat="1">
+    <row r="543" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M543" s="12"/>
     </row>
-    <row r="544" spans="13:13" s="11" customFormat="1">
+    <row r="544" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M544" s="12"/>
     </row>
-    <row r="545" spans="13:13" s="11" customFormat="1">
+    <row r="545" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M545" s="12"/>
     </row>
-    <row r="546" spans="13:13" s="11" customFormat="1">
+    <row r="546" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M546" s="12"/>
     </row>
-    <row r="547" spans="13:13" s="11" customFormat="1">
+    <row r="547" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M547" s="12"/>
     </row>
-    <row r="548" spans="13:13" s="11" customFormat="1">
+    <row r="548" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M548" s="12"/>
     </row>
-    <row r="549" spans="13:13" s="11" customFormat="1">
+    <row r="549" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M549" s="12"/>
     </row>
-    <row r="550" spans="13:13" s="11" customFormat="1">
+    <row r="550" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M550" s="12"/>
     </row>
-    <row r="551" spans="13:13" s="11" customFormat="1">
+    <row r="551" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M551" s="12"/>
     </row>
-    <row r="552" spans="13:13" s="11" customFormat="1">
+    <row r="552" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M552" s="12"/>
     </row>
-    <row r="553" spans="13:13" s="11" customFormat="1">
+    <row r="553" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M553" s="12"/>
     </row>
-    <row r="554" spans="13:13" s="11" customFormat="1">
+    <row r="554" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M554" s="12"/>
     </row>
-    <row r="555" spans="13:13" s="11" customFormat="1">
+    <row r="555" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M555" s="12"/>
     </row>
-    <row r="556" spans="13:13" s="11" customFormat="1">
+    <row r="556" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M556" s="12"/>
     </row>
-    <row r="557" spans="13:13" s="11" customFormat="1">
+    <row r="557" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M557" s="12"/>
     </row>
-    <row r="558" spans="13:13" s="11" customFormat="1">
+    <row r="558" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M558" s="12"/>
     </row>
-    <row r="559" spans="13:13" s="11" customFormat="1">
+    <row r="559" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M559" s="12"/>
     </row>
-    <row r="560" spans="13:13" s="11" customFormat="1">
+    <row r="560" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M560" s="12"/>
     </row>
-    <row r="561" spans="13:13" s="11" customFormat="1">
+    <row r="561" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M561" s="12"/>
     </row>
-    <row r="562" spans="13:13" s="11" customFormat="1">
+    <row r="562" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M562" s="12"/>
     </row>
-    <row r="563" spans="13:13" s="11" customFormat="1">
+    <row r="563" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M563" s="12"/>
     </row>
-    <row r="564" spans="13:13" s="11" customFormat="1">
+    <row r="564" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M564" s="12"/>
     </row>
-    <row r="565" spans="13:13" s="11" customFormat="1">
+    <row r="565" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M565" s="12"/>
     </row>
-    <row r="566" spans="13:13" s="11" customFormat="1">
+    <row r="566" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M566" s="12"/>
     </row>
-    <row r="567" spans="13:13" s="11" customFormat="1">
+    <row r="567" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M567" s="12"/>
     </row>
-    <row r="568" spans="13:13" s="11" customFormat="1">
+    <row r="568" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M568" s="12"/>
     </row>
-    <row r="569" spans="13:13" s="11" customFormat="1">
+    <row r="569" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M569" s="12"/>
     </row>
-    <row r="570" spans="13:13" s="11" customFormat="1">
+    <row r="570" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M570" s="12"/>
     </row>
-    <row r="571" spans="13:13" s="11" customFormat="1">
+    <row r="571" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M571" s="12"/>
     </row>
-    <row r="572" spans="13:13" s="11" customFormat="1">
+    <row r="572" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M572" s="12"/>
     </row>
-    <row r="573" spans="13:13" s="11" customFormat="1">
+    <row r="573" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M573" s="12"/>
     </row>
-    <row r="574" spans="13:13" s="11" customFormat="1">
+    <row r="574" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M574" s="12"/>
     </row>
-    <row r="575" spans="13:13" s="11" customFormat="1">
+    <row r="575" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M575" s="12"/>
     </row>
-    <row r="576" spans="13:13" s="11" customFormat="1">
+    <row r="576" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M576" s="12"/>
     </row>
-    <row r="577" spans="13:13" s="11" customFormat="1">
+    <row r="577" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M577" s="12"/>
     </row>
-    <row r="578" spans="13:13" s="11" customFormat="1">
+    <row r="578" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M578" s="12"/>
     </row>
-    <row r="579" spans="13:13" s="11" customFormat="1">
+    <row r="579" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M579" s="12"/>
     </row>
-    <row r="580" spans="13:13" s="11" customFormat="1">
+    <row r="580" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M580" s="12"/>
     </row>
-    <row r="581" spans="13:13" s="11" customFormat="1">
+    <row r="581" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M581" s="12"/>
     </row>
-    <row r="582" spans="13:13" s="11" customFormat="1">
+    <row r="582" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M582" s="12"/>
     </row>
-    <row r="583" spans="13:13" s="11" customFormat="1">
+    <row r="583" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M583" s="12"/>
     </row>
-    <row r="584" spans="13:13" s="11" customFormat="1">
+    <row r="584" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M584" s="12"/>
     </row>
-    <row r="585" spans="13:13" s="11" customFormat="1">
+    <row r="585" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M585" s="12"/>
     </row>
-    <row r="586" spans="13:13" s="11" customFormat="1">
+    <row r="586" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M586" s="12"/>
     </row>
-    <row r="587" spans="13:13" s="11" customFormat="1">
+    <row r="587" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M587" s="12"/>
     </row>
-    <row r="588" spans="13:13" s="11" customFormat="1">
+    <row r="588" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M588" s="12"/>
     </row>
-    <row r="589" spans="13:13" s="11" customFormat="1">
+    <row r="589" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M589" s="12"/>
     </row>
-    <row r="590" spans="13:13" s="11" customFormat="1">
+    <row r="590" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M590" s="12"/>
     </row>
-    <row r="591" spans="13:13" s="11" customFormat="1">
+    <row r="591" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M591" s="12"/>
     </row>
-    <row r="592" spans="13:13" s="11" customFormat="1">
+    <row r="592" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M592" s="12"/>
     </row>
-    <row r="593" spans="13:13" s="11" customFormat="1">
+    <row r="593" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M593" s="12"/>
     </row>
-    <row r="594" spans="13:13" s="11" customFormat="1">
+    <row r="594" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M594" s="12"/>
     </row>
-    <row r="595" spans="13:13" s="11" customFormat="1">
+    <row r="595" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M595" s="12"/>
     </row>
-    <row r="596" spans="13:13" s="11" customFormat="1">
+    <row r="596" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M596" s="12"/>
     </row>
-    <row r="597" spans="13:13" s="11" customFormat="1">
+    <row r="597" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M597" s="12"/>
     </row>
-    <row r="598" spans="13:13" s="11" customFormat="1">
+    <row r="598" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M598" s="12"/>
     </row>
-    <row r="599" spans="13:13" s="11" customFormat="1">
+    <row r="599" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M599" s="12"/>
     </row>
-    <row r="600" spans="13:13" s="11" customFormat="1">
+    <row r="600" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M600" s="12"/>
     </row>
-    <row r="601" spans="13:13" s="11" customFormat="1">
+    <row r="601" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M601" s="12"/>
     </row>
-    <row r="602" spans="13:13" s="11" customFormat="1">
+    <row r="602" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M602" s="12"/>
     </row>
-    <row r="603" spans="13:13" s="11" customFormat="1">
+    <row r="603" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M603" s="12"/>
     </row>
-    <row r="604" spans="13:13" s="11" customFormat="1">
+    <row r="604" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M604" s="12"/>
     </row>
-    <row r="605" spans="13:13" s="11" customFormat="1">
+    <row r="605" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M605" s="12"/>
     </row>
-    <row r="606" spans="13:13" s="11" customFormat="1">
+    <row r="606" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M606" s="12"/>
     </row>
-    <row r="607" spans="13:13" s="11" customFormat="1">
+    <row r="607" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M607" s="12"/>
     </row>
-    <row r="608" spans="13:13" s="11" customFormat="1">
+    <row r="608" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M608" s="12"/>
     </row>
-    <row r="609" spans="13:13" s="11" customFormat="1">
+    <row r="609" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M609" s="12"/>
     </row>
-    <row r="610" spans="13:13" s="11" customFormat="1">
+    <row r="610" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M610" s="12"/>
     </row>
-    <row r="611" spans="13:13" s="11" customFormat="1">
+    <row r="611" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M611" s="12"/>
     </row>
-    <row r="612" spans="13:13" s="11" customFormat="1">
+    <row r="612" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M612" s="12"/>
     </row>
-    <row r="613" spans="13:13" s="11" customFormat="1">
+    <row r="613" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M613" s="12"/>
     </row>
-    <row r="614" spans="13:13" s="11" customFormat="1">
+    <row r="614" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M614" s="12"/>
     </row>
-    <row r="615" spans="13:13" s="11" customFormat="1">
+    <row r="615" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M615" s="12"/>
     </row>
-    <row r="616" spans="13:13" s="11" customFormat="1">
+    <row r="616" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M616" s="12"/>
     </row>
-    <row r="617" spans="13:13" s="11" customFormat="1">
+    <row r="617" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M617" s="12"/>
     </row>
-    <row r="618" spans="13:13" s="11" customFormat="1">
+    <row r="618" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M618" s="12"/>
     </row>
-    <row r="619" spans="13:13" s="11" customFormat="1">
+    <row r="619" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M619" s="12"/>
     </row>
-    <row r="620" spans="13:13" s="11" customFormat="1">
+    <row r="620" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M620" s="12"/>
     </row>
-    <row r="621" spans="13:13" s="11" customFormat="1">
+    <row r="621" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M621" s="12"/>
     </row>
-    <row r="622" spans="13:13" s="11" customFormat="1">
+    <row r="622" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M622" s="12"/>
     </row>
-    <row r="623" spans="13:13" s="11" customFormat="1">
+    <row r="623" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M623" s="12"/>
     </row>
-    <row r="624" spans="13:13" s="11" customFormat="1">
+    <row r="624" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M624" s="12"/>
     </row>
-    <row r="625" spans="13:13" s="11" customFormat="1">
+    <row r="625" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M625" s="12"/>
     </row>
-    <row r="626" spans="13:13" s="11" customFormat="1">
+    <row r="626" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M626" s="12"/>
     </row>
-    <row r="627" spans="13:13" s="11" customFormat="1">
+    <row r="627" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M627" s="12"/>
     </row>
-    <row r="628" spans="13:13" s="11" customFormat="1">
+    <row r="628" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M628" s="12"/>
     </row>
-    <row r="629" spans="13:13" s="11" customFormat="1">
+    <row r="629" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M629" s="12"/>
     </row>
-    <row r="630" spans="13:13" s="11" customFormat="1">
+    <row r="630" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M630" s="12"/>
     </row>
-    <row r="631" spans="13:13" s="11" customFormat="1">
+    <row r="631" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M631" s="12"/>
     </row>
-    <row r="632" spans="13:13" s="11" customFormat="1">
+    <row r="632" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M632" s="12"/>
     </row>
-    <row r="633" spans="13:13" s="11" customFormat="1">
+    <row r="633" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M633" s="12"/>
     </row>
-    <row r="634" spans="13:13" s="11" customFormat="1">
+    <row r="634" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M634" s="12"/>
     </row>
-    <row r="635" spans="13:13" s="11" customFormat="1">
+    <row r="635" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M635" s="12"/>
     </row>
-    <row r="636" spans="13:13" s="11" customFormat="1">
+    <row r="636" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M636" s="12"/>
     </row>
-    <row r="637" spans="13:13" s="11" customFormat="1">
+    <row r="637" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M637" s="12"/>
     </row>
-    <row r="638" spans="13:13" s="11" customFormat="1">
+    <row r="638" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M638" s="12"/>
     </row>
-    <row r="639" spans="13:13" s="11" customFormat="1">
+    <row r="639" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M639" s="12"/>
     </row>
-    <row r="640" spans="13:13" s="11" customFormat="1">
+    <row r="640" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M640" s="12"/>
     </row>
-    <row r="641" spans="13:13" s="11" customFormat="1">
+    <row r="641" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M641" s="12"/>
     </row>
-    <row r="642" spans="13:13" s="11" customFormat="1">
+    <row r="642" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M642" s="12"/>
     </row>
-    <row r="643" spans="13:13" s="11" customFormat="1">
+    <row r="643" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M643" s="12"/>
     </row>
-    <row r="644" spans="13:13" s="11" customFormat="1">
+    <row r="644" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M644" s="12"/>
     </row>
-    <row r="645" spans="13:13" s="11" customFormat="1">
+    <row r="645" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M645" s="12"/>
     </row>
-    <row r="646" spans="13:13" s="11" customFormat="1">
+    <row r="646" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M646" s="12"/>
     </row>
-    <row r="647" spans="13:13" s="11" customFormat="1">
+    <row r="647" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M647" s="12"/>
     </row>
-    <row r="648" spans="13:13" s="11" customFormat="1">
+    <row r="648" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M648" s="12"/>
     </row>
-    <row r="649" spans="13:13" s="11" customFormat="1">
+    <row r="649" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M649" s="12"/>
     </row>
-    <row r="650" spans="13:13" s="11" customFormat="1">
+    <row r="650" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M650" s="12"/>
     </row>
-    <row r="651" spans="13:13" s="11" customFormat="1">
+    <row r="651" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M651" s="12"/>
     </row>
-    <row r="652" spans="13:13" s="11" customFormat="1">
+    <row r="652" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M652" s="12"/>
     </row>
-    <row r="653" spans="13:13" s="11" customFormat="1">
+    <row r="653" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M653" s="12"/>
     </row>
-    <row r="654" spans="13:13" s="11" customFormat="1">
+    <row r="654" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M654" s="12"/>
     </row>
-    <row r="655" spans="13:13" s="11" customFormat="1">
+    <row r="655" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M655" s="12"/>
     </row>
-    <row r="656" spans="13:13" s="11" customFormat="1">
+    <row r="656" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M656" s="12"/>
     </row>
-    <row r="657" spans="13:13" s="11" customFormat="1">
+    <row r="657" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M657" s="12"/>
     </row>
-    <row r="658" spans="13:13" s="11" customFormat="1">
+    <row r="658" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M658" s="12"/>
     </row>
-    <row r="659" spans="13:13" s="11" customFormat="1">
+    <row r="659" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M659" s="12"/>
     </row>
-    <row r="660" spans="13:13" s="11" customFormat="1">
+    <row r="660" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M660" s="12"/>
     </row>
-    <row r="661" spans="13:13" s="11" customFormat="1">
+    <row r="661" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M661" s="12"/>
     </row>
-    <row r="662" spans="13:13" s="11" customFormat="1">
+    <row r="662" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M662" s="12"/>
     </row>
-    <row r="663" spans="13:13" s="11" customFormat="1">
+    <row r="663" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M663" s="12"/>
     </row>
-    <row r="664" spans="13:13" s="11" customFormat="1">
+    <row r="664" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M664" s="12"/>
     </row>
-    <row r="665" spans="13:13" s="11" customFormat="1">
+    <row r="665" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M665" s="12"/>
     </row>
-    <row r="666" spans="13:13" s="11" customFormat="1">
+    <row r="666" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M666" s="12"/>
     </row>
-    <row r="667" spans="13:13" s="11" customFormat="1">
+    <row r="667" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M667" s="12"/>
     </row>
-    <row r="668" spans="13:13" s="11" customFormat="1">
+    <row r="668" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M668" s="12"/>
     </row>
-    <row r="669" spans="13:13" s="11" customFormat="1">
+    <row r="669" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M669" s="12"/>
     </row>
-    <row r="670" spans="13:13" s="11" customFormat="1">
+    <row r="670" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M670" s="12"/>
     </row>
-    <row r="671" spans="13:13" s="11" customFormat="1">
+    <row r="671" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M671" s="12"/>
     </row>
-    <row r="672" spans="13:13" s="11" customFormat="1">
+    <row r="672" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M672" s="12"/>
     </row>
-    <row r="673" spans="13:13" s="11" customFormat="1">
+    <row r="673" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M673" s="12"/>
     </row>
-    <row r="674" spans="13:13" s="11" customFormat="1">
+    <row r="674" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M674" s="12"/>
     </row>
-    <row r="675" spans="13:13" s="11" customFormat="1">
+    <row r="675" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M675" s="12"/>
     </row>
-    <row r="676" spans="13:13" s="11" customFormat="1">
+    <row r="676" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M676" s="12"/>
     </row>
-    <row r="677" spans="13:13" s="11" customFormat="1">
+    <row r="677" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M677" s="12"/>
     </row>
-    <row r="678" spans="13:13" s="11" customFormat="1">
+    <row r="678" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M678" s="12"/>
     </row>
-    <row r="679" spans="13:13" s="11" customFormat="1">
+    <row r="679" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M679" s="12"/>
     </row>
-    <row r="680" spans="13:13" s="11" customFormat="1">
+    <row r="680" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M680" s="12"/>
     </row>
-    <row r="681" spans="13:13" s="11" customFormat="1">
+    <row r="681" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M681" s="12"/>
     </row>
-    <row r="682" spans="13:13" s="11" customFormat="1">
+    <row r="682" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M682" s="12"/>
     </row>
-    <row r="683" spans="13:13" s="11" customFormat="1">
+    <row r="683" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M683" s="12"/>
     </row>
-    <row r="684" spans="13:13" s="11" customFormat="1">
+    <row r="684" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M684" s="12"/>
     </row>
-    <row r="685" spans="13:13" s="11" customFormat="1">
+    <row r="685" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M685" s="12"/>
     </row>
-    <row r="686" spans="13:13" s="11" customFormat="1">
+    <row r="686" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M686" s="12"/>
     </row>
-    <row r="687" spans="13:13" s="11" customFormat="1">
+    <row r="687" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M687" s="12"/>
     </row>
-    <row r="688" spans="13:13" s="11" customFormat="1">
+    <row r="688" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M688" s="12"/>
     </row>
-    <row r="689" spans="13:13" s="11" customFormat="1">
+    <row r="689" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M689" s="12"/>
     </row>
-    <row r="690" spans="13:13" s="11" customFormat="1">
+    <row r="690" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M690" s="12"/>
     </row>
-    <row r="691" spans="13:13" s="11" customFormat="1">
+    <row r="691" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M691" s="12"/>
     </row>
-    <row r="692" spans="13:13" s="11" customFormat="1">
+    <row r="692" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M692" s="12"/>
     </row>
-    <row r="693" spans="13:13" s="11" customFormat="1">
+    <row r="693" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M693" s="12"/>
     </row>
-    <row r="694" spans="13:13" s="11" customFormat="1">
+    <row r="694" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M694" s="12"/>
     </row>
-    <row r="695" spans="13:13" s="11" customFormat="1">
+    <row r="695" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M695" s="12"/>
     </row>
-    <row r="696" spans="13:13" s="11" customFormat="1">
+    <row r="696" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M696" s="12"/>
     </row>
-    <row r="697" spans="13:13" s="11" customFormat="1">
+    <row r="697" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M697" s="12"/>
     </row>
-    <row r="698" spans="13:13" s="11" customFormat="1">
+    <row r="698" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M698" s="12"/>
     </row>
-    <row r="699" spans="13:13" s="11" customFormat="1">
+    <row r="699" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M699" s="12"/>
     </row>
-    <row r="700" spans="13:13" s="11" customFormat="1">
+    <row r="700" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M700" s="12"/>
     </row>
-    <row r="701" spans="13:13" s="11" customFormat="1">
+    <row r="701" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M701" s="12"/>
     </row>
-    <row r="702" spans="13:13" s="11" customFormat="1">
+    <row r="702" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M702" s="12"/>
     </row>
-    <row r="703" spans="13:13" s="11" customFormat="1">
+    <row r="703" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M703" s="12"/>
     </row>
-    <row r="704" spans="13:13" s="11" customFormat="1">
+    <row r="704" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M704" s="12"/>
     </row>
-    <row r="705" spans="13:13" s="11" customFormat="1">
+    <row r="705" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M705" s="12"/>
     </row>
-    <row r="706" spans="13:13" s="11" customFormat="1">
+    <row r="706" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M706" s="12"/>
     </row>
-    <row r="707" spans="13:13" s="11" customFormat="1">
+    <row r="707" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M707" s="12"/>
     </row>
-    <row r="708" spans="13:13" s="11" customFormat="1">
+    <row r="708" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M708" s="12"/>
     </row>
-    <row r="709" spans="13:13" s="11" customFormat="1">
+    <row r="709" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M709" s="12"/>
     </row>
-    <row r="710" spans="13:13" s="11" customFormat="1">
+    <row r="710" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M710" s="12"/>
     </row>
-    <row r="711" spans="13:13" s="11" customFormat="1">
+    <row r="711" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M711" s="12"/>
     </row>
-    <row r="712" spans="13:13" s="11" customFormat="1">
+    <row r="712" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M712" s="12"/>
     </row>
-    <row r="713" spans="13:13" s="11" customFormat="1">
+    <row r="713" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M713" s="12"/>
     </row>
-    <row r="714" spans="13:13" s="11" customFormat="1">
+    <row r="714" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M714" s="12"/>
     </row>
-    <row r="715" spans="13:13" s="11" customFormat="1">
+    <row r="715" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M715" s="12"/>
     </row>
-    <row r="716" spans="13:13" s="11" customFormat="1">
+    <row r="716" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M716" s="12"/>
     </row>
-    <row r="717" spans="13:13" s="11" customFormat="1">
+    <row r="717" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M717" s="12"/>
     </row>
-    <row r="718" spans="13:13" s="11" customFormat="1">
+    <row r="718" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M718" s="12"/>
     </row>
-    <row r="719" spans="13:13" s="11" customFormat="1">
+    <row r="719" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M719" s="12"/>
     </row>
-    <row r="720" spans="13:13" s="11" customFormat="1">
+    <row r="720" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M720" s="12"/>
     </row>
-    <row r="721" spans="13:13" s="11" customFormat="1">
+    <row r="721" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M721" s="12"/>
     </row>
-    <row r="722" spans="13:13" s="11" customFormat="1">
+    <row r="722" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M722" s="12"/>
     </row>
-    <row r="723" spans="13:13" s="11" customFormat="1">
+    <row r="723" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M723" s="12"/>
     </row>
-    <row r="724" spans="13:13" s="11" customFormat="1">
+    <row r="724" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M724" s="12"/>
     </row>
-    <row r="725" spans="13:13" s="11" customFormat="1">
+    <row r="725" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M725" s="12"/>
     </row>
-    <row r="726" spans="13:13" s="11" customFormat="1">
+    <row r="726" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M726" s="12"/>
     </row>
-    <row r="727" spans="13:13" s="11" customFormat="1">
+    <row r="727" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M727" s="12"/>
     </row>
-    <row r="728" spans="13:13" s="11" customFormat="1">
+    <row r="728" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M728" s="12"/>
     </row>
-    <row r="729" spans="13:13" s="11" customFormat="1">
+    <row r="729" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M729" s="12"/>
     </row>
-    <row r="730" spans="13:13" s="11" customFormat="1">
+    <row r="730" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M730" s="12"/>
     </row>
-    <row r="731" spans="13:13" s="11" customFormat="1">
+    <row r="731" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M731" s="12"/>
     </row>
-    <row r="732" spans="13:13" s="11" customFormat="1">
+    <row r="732" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M732" s="12"/>
     </row>
-    <row r="733" spans="13:13" s="11" customFormat="1">
+    <row r="733" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M733" s="12"/>
     </row>
-    <row r="734" spans="13:13" s="11" customFormat="1">
+    <row r="734" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M734" s="12"/>
     </row>
-    <row r="735" spans="13:13" s="11" customFormat="1">
+    <row r="735" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M735" s="12"/>
     </row>
-    <row r="736" spans="13:13" s="11" customFormat="1">
+    <row r="736" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M736" s="12"/>
     </row>
-    <row r="737" spans="13:13" s="11" customFormat="1">
+    <row r="737" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M737" s="12"/>
     </row>
-    <row r="738" spans="13:13" s="11" customFormat="1">
+    <row r="738" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M738" s="12"/>
     </row>
-    <row r="739" spans="13:13" s="11" customFormat="1">
+    <row r="739" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M739" s="12"/>
     </row>
-    <row r="740" spans="13:13" s="11" customFormat="1">
+    <row r="740" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M740" s="12"/>
     </row>
-    <row r="741" spans="13:13" s="11" customFormat="1">
+    <row r="741" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M741" s="12"/>
     </row>
-    <row r="742" spans="13:13" s="11" customFormat="1">
+    <row r="742" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M742" s="12"/>
     </row>
-    <row r="743" spans="13:13" s="11" customFormat="1">
+    <row r="743" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M743" s="12"/>
     </row>
-    <row r="744" spans="13:13" s="11" customFormat="1">
+    <row r="744" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M744" s="12"/>
     </row>
-    <row r="745" spans="13:13" s="11" customFormat="1">
+    <row r="745" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M745" s="12"/>
     </row>
-    <row r="746" spans="13:13" s="11" customFormat="1">
+    <row r="746" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M746" s="12"/>
     </row>
-    <row r="747" spans="13:13" s="11" customFormat="1">
+    <row r="747" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M747" s="12"/>
     </row>
-    <row r="748" spans="13:13" s="11" customFormat="1">
+    <row r="748" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M748" s="12"/>
     </row>
-    <row r="749" spans="13:13" s="11" customFormat="1">
+    <row r="749" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M749" s="12"/>
     </row>
-    <row r="750" spans="13:13" s="11" customFormat="1">
+    <row r="750" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M750" s="12"/>
     </row>
-    <row r="751" spans="13:13" s="11" customFormat="1">
+    <row r="751" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M751" s="12"/>
     </row>
-    <row r="752" spans="13:13" s="11" customFormat="1">
+    <row r="752" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M752" s="12"/>
     </row>
-    <row r="753" spans="13:13" s="11" customFormat="1">
+    <row r="753" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M753" s="12"/>
     </row>
-    <row r="754" spans="13:13" s="11" customFormat="1">
+    <row r="754" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M754" s="12"/>
     </row>
-    <row r="755" spans="13:13" s="11" customFormat="1">
+    <row r="755" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M755" s="12"/>
     </row>
-    <row r="756" spans="13:13" s="11" customFormat="1">
+    <row r="756" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M756" s="12"/>
     </row>
-    <row r="757" spans="13:13" s="11" customFormat="1">
+    <row r="757" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M757" s="12"/>
     </row>
-    <row r="758" spans="13:13" s="11" customFormat="1">
+    <row r="758" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M758" s="12"/>
     </row>
-    <row r="759" spans="13:13" s="11" customFormat="1">
+    <row r="759" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M759" s="12"/>
     </row>
-    <row r="760" spans="13:13" s="11" customFormat="1">
+    <row r="760" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M760" s="12"/>
     </row>
-    <row r="761" spans="13:13" s="11" customFormat="1">
+    <row r="761" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M761" s="12"/>
     </row>
-    <row r="762" spans="13:13" s="11" customFormat="1">
+    <row r="762" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M762" s="12"/>
     </row>
-    <row r="763" spans="13:13" s="11" customFormat="1">
+    <row r="763" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M763" s="12"/>
     </row>
-    <row r="764" spans="13:13" s="11" customFormat="1">
+    <row r="764" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M764" s="12"/>
     </row>
-    <row r="765" spans="13:13" s="11" customFormat="1">
+    <row r="765" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M765" s="12"/>
     </row>
-    <row r="766" spans="13:13" s="11" customFormat="1">
+    <row r="766" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M766" s="12"/>
     </row>
-    <row r="767" spans="13:13" s="11" customFormat="1">
+    <row r="767" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M767" s="12"/>
     </row>
-    <row r="768" spans="13:13" s="11" customFormat="1">
+    <row r="768" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M768" s="12"/>
     </row>
-    <row r="769" spans="13:13" s="11" customFormat="1">
+    <row r="769" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M769" s="12"/>
     </row>
-    <row r="770" spans="13:13" s="11" customFormat="1">
+    <row r="770" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M770" s="12"/>
     </row>
-    <row r="771" spans="13:13" s="11" customFormat="1">
+    <row r="771" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M771" s="12"/>
     </row>
-    <row r="772" spans="13:13" s="11" customFormat="1">
+    <row r="772" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M772" s="12"/>
     </row>
-    <row r="773" spans="13:13" s="11" customFormat="1">
+    <row r="773" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M773" s="12"/>
     </row>
-    <row r="774" spans="13:13" s="11" customFormat="1">
+    <row r="774" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M774" s="12"/>
     </row>
-    <row r="775" spans="13:13" s="11" customFormat="1">
+    <row r="775" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M775" s="12"/>
     </row>
-    <row r="776" spans="13:13" s="11" customFormat="1">
+    <row r="776" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M776" s="12"/>
     </row>
-    <row r="777" spans="13:13" s="11" customFormat="1">
+    <row r="777" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M777" s="12"/>
     </row>
-    <row r="778" spans="13:13" s="11" customFormat="1">
+    <row r="778" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M778" s="12"/>
     </row>
-    <row r="779" spans="13:13" s="11" customFormat="1">
+    <row r="779" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M779" s="12"/>
     </row>
-    <row r="780" spans="13:13" s="11" customFormat="1">
+    <row r="780" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M780" s="12"/>
     </row>
-    <row r="781" spans="13:13" s="11" customFormat="1">
+    <row r="781" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M781" s="12"/>
     </row>
-    <row r="782" spans="13:13" s="11" customFormat="1">
+    <row r="782" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M782" s="12"/>
     </row>
-    <row r="783" spans="13:13" s="11" customFormat="1">
+    <row r="783" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M783" s="12"/>
     </row>
-    <row r="784" spans="13:13" s="11" customFormat="1">
+    <row r="784" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M784" s="12"/>
     </row>
-    <row r="785" spans="13:13" s="11" customFormat="1">
+    <row r="785" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M785" s="12"/>
     </row>
-    <row r="786" spans="13:13" s="11" customFormat="1">
+    <row r="786" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M786" s="12"/>
     </row>
-    <row r="787" spans="13:13" s="11" customFormat="1">
+    <row r="787" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M787" s="12"/>
     </row>
-    <row r="788" spans="13:13" s="11" customFormat="1">
+    <row r="788" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M788" s="12"/>
     </row>
-    <row r="789" spans="13:13" s="11" customFormat="1">
+    <row r="789" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M789" s="12"/>
     </row>
-    <row r="790" spans="13:13" s="11" customFormat="1">
+    <row r="790" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M790" s="12"/>
     </row>
-    <row r="791" spans="13:13" s="11" customFormat="1">
+    <row r="791" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M791" s="12"/>
     </row>
-    <row r="792" spans="13:13" s="11" customFormat="1">
+    <row r="792" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M792" s="12"/>
     </row>
-    <row r="793" spans="13:13" s="11" customFormat="1">
+    <row r="793" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M793" s="12"/>
     </row>
-    <row r="794" spans="13:13" s="11" customFormat="1">
+    <row r="794" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M794" s="12"/>
     </row>
-    <row r="795" spans="13:13" s="11" customFormat="1">
+    <row r="795" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M795" s="12"/>
     </row>
-    <row r="796" spans="13:13" s="11" customFormat="1">
+    <row r="796" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M796" s="12"/>
     </row>
-    <row r="797" spans="13:13" s="11" customFormat="1">
+    <row r="797" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M797" s="12"/>
     </row>
-    <row r="798" spans="13:13" s="11" customFormat="1">
+    <row r="798" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M798" s="12"/>
     </row>
-    <row r="799" spans="13:13" s="11" customFormat="1">
+    <row r="799" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M799" s="12"/>
     </row>
-    <row r="800" spans="13:13" s="11" customFormat="1">
+    <row r="800" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M800" s="12"/>
     </row>
-    <row r="801" spans="13:13" s="11" customFormat="1">
+    <row r="801" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M801" s="12"/>
     </row>
-    <row r="802" spans="13:13" s="11" customFormat="1">
+    <row r="802" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M802" s="12"/>
     </row>
-    <row r="803" spans="13:13" s="11" customFormat="1">
+    <row r="803" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M803" s="12"/>
     </row>
-    <row r="804" spans="13:13" s="11" customFormat="1">
+    <row r="804" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M804" s="12"/>
     </row>
-    <row r="805" spans="13:13" s="11" customFormat="1">
+    <row r="805" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M805" s="12"/>
     </row>
-    <row r="806" spans="13:13" s="11" customFormat="1">
+    <row r="806" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M806" s="12"/>
     </row>
-    <row r="807" spans="13:13" s="11" customFormat="1">
+    <row r="807" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M807" s="12"/>
     </row>
-    <row r="808" spans="13:13" s="11" customFormat="1">
+    <row r="808" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M808" s="12"/>
     </row>
-    <row r="809" spans="13:13" s="11" customFormat="1">
+    <row r="809" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M809" s="12"/>
     </row>
-    <row r="810" spans="13:13" s="11" customFormat="1">
+    <row r="810" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M810" s="12"/>
     </row>
-    <row r="811" spans="13:13" s="11" customFormat="1">
+    <row r="811" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M811" s="12"/>
     </row>
-    <row r="812" spans="13:13" s="11" customFormat="1">
+    <row r="812" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M812" s="12"/>
     </row>
-    <row r="813" spans="13:13" s="11" customFormat="1">
+    <row r="813" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M813" s="12"/>
     </row>
-    <row r="814" spans="13:13" s="11" customFormat="1">
+    <row r="814" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M814" s="12"/>
     </row>
-    <row r="815" spans="13:13" s="11" customFormat="1">
+    <row r="815" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M815" s="12"/>
     </row>
-    <row r="816" spans="13:13" s="11" customFormat="1">
+    <row r="816" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M816" s="12"/>
     </row>
-    <row r="817" spans="13:13" s="11" customFormat="1">
+    <row r="817" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M817" s="12"/>
     </row>
-    <row r="818" spans="13:13" s="11" customFormat="1">
+    <row r="818" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M818" s="12"/>
     </row>
-    <row r="819" spans="13:13" s="11" customFormat="1">
+    <row r="819" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M819" s="12"/>
     </row>
-    <row r="820" spans="13:13" s="11" customFormat="1">
+    <row r="820" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M820" s="12"/>
     </row>
-    <row r="821" spans="13:13" s="11" customFormat="1">
+    <row r="821" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M821" s="12"/>
     </row>
-    <row r="822" spans="13:13" s="11" customFormat="1">
+    <row r="822" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M822" s="12"/>
     </row>
-    <row r="823" spans="13:13" s="11" customFormat="1">
+    <row r="823" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M823" s="12"/>
     </row>
-    <row r="824" spans="13:13" s="11" customFormat="1">
+    <row r="824" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M824" s="12"/>
     </row>
-    <row r="825" spans="13:13" s="11" customFormat="1">
+    <row r="825" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M825" s="12"/>
     </row>
-    <row r="826" spans="13:13" s="11" customFormat="1">
+    <row r="826" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M826" s="12"/>
     </row>
-    <row r="827" spans="13:13" s="11" customFormat="1">
+    <row r="827" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M827" s="12"/>
     </row>
-    <row r="828" spans="13:13" s="11" customFormat="1">
+    <row r="828" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M828" s="12"/>
     </row>
-    <row r="829" spans="13:13" s="11" customFormat="1">
+    <row r="829" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M829" s="12"/>
     </row>
-    <row r="830" spans="13:13" s="11" customFormat="1">
+    <row r="830" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M830" s="12"/>
     </row>
-    <row r="831" spans="13:13" s="11" customFormat="1">
+    <row r="831" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M831" s="12"/>
     </row>
-    <row r="832" spans="13:13" s="11" customFormat="1">
+    <row r="832" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M832" s="12"/>
     </row>
-    <row r="833" spans="13:13" s="11" customFormat="1">
+    <row r="833" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M833" s="12"/>
     </row>
-    <row r="834" spans="13:13" s="11" customFormat="1">
+    <row r="834" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M834" s="12"/>
     </row>
-    <row r="835" spans="13:13" s="11" customFormat="1">
+    <row r="835" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M835" s="12"/>
     </row>
-    <row r="836" spans="13:13" s="11" customFormat="1">
+    <row r="836" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M836" s="12"/>
     </row>
-    <row r="837" spans="13:13" s="11" customFormat="1">
+    <row r="837" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M837" s="12"/>
     </row>
-    <row r="838" spans="13:13" s="11" customFormat="1">
+    <row r="838" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M838" s="12"/>
     </row>
-    <row r="839" spans="13:13" s="11" customFormat="1">
+    <row r="839" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M839" s="12"/>
     </row>
-    <row r="840" spans="13:13" s="11" customFormat="1">
+    <row r="840" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M840" s="12"/>
     </row>
-    <row r="841" spans="13:13" s="11" customFormat="1">
+    <row r="841" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M841" s="12"/>
     </row>
-    <row r="842" spans="13:13" s="11" customFormat="1">
+    <row r="842" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M842" s="12"/>
     </row>
-    <row r="843" spans="13:13" s="11" customFormat="1">
+    <row r="843" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M843" s="12"/>
     </row>
-    <row r="844" spans="13:13" s="11" customFormat="1">
+    <row r="844" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M844" s="12"/>
     </row>
-    <row r="845" spans="13:13" s="11" customFormat="1">
+    <row r="845" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M845" s="12"/>
     </row>
-    <row r="846" spans="13:13" s="11" customFormat="1">
+    <row r="846" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M846" s="12"/>
     </row>
-    <row r="847" spans="13:13" s="11" customFormat="1">
+    <row r="847" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M847" s="12"/>
     </row>
-    <row r="848" spans="13:13" s="11" customFormat="1">
+    <row r="848" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M848" s="12"/>
     </row>
-    <row r="849" spans="13:13" s="11" customFormat="1">
+    <row r="849" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M849" s="12"/>
     </row>
-    <row r="850" spans="13:13" s="11" customFormat="1">
+    <row r="850" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M850" s="12"/>
     </row>
-    <row r="851" spans="13:13" s="11" customFormat="1">
+    <row r="851" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M851" s="12"/>
     </row>
-    <row r="852" spans="13:13" s="11" customFormat="1">
+    <row r="852" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M852" s="12"/>
     </row>
-    <row r="853" spans="13:13" s="11" customFormat="1">
+    <row r="853" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M853" s="12"/>
     </row>
-    <row r="854" spans="13:13" s="11" customFormat="1">
+    <row r="854" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M854" s="12"/>
     </row>
-    <row r="855" spans="13:13" s="11" customFormat="1">
+    <row r="855" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M855" s="12"/>
     </row>
-    <row r="856" spans="13:13" s="11" customFormat="1">
+    <row r="856" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M856" s="12"/>
     </row>
-    <row r="857" spans="13:13" s="11" customFormat="1">
+    <row r="857" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M857" s="12"/>
     </row>
-    <row r="858" spans="13:13" s="11" customFormat="1">
+    <row r="858" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M858" s="12"/>
     </row>
-    <row r="859" spans="13:13" s="11" customFormat="1">
+    <row r="859" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M859" s="12"/>
     </row>
-    <row r="860" spans="13:13" s="11" customFormat="1">
+    <row r="860" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M860" s="12"/>
     </row>
-    <row r="861" spans="13:13" s="11" customFormat="1">
+    <row r="861" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M861" s="12"/>
     </row>
-    <row r="862" spans="13:13" s="11" customFormat="1">
+    <row r="862" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M862" s="12"/>
     </row>
-    <row r="863" spans="13:13" s="11" customFormat="1">
+    <row r="863" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M863" s="12"/>
     </row>
-    <row r="864" spans="13:13" s="11" customFormat="1">
+    <row r="864" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M864" s="12"/>
     </row>
-    <row r="865" spans="13:13" s="11" customFormat="1">
+    <row r="865" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M865" s="12"/>
     </row>
-    <row r="866" spans="13:13" s="11" customFormat="1">
+    <row r="866" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M866" s="12"/>
     </row>
-    <row r="867" spans="13:13" s="11" customFormat="1">
+    <row r="867" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M867" s="12"/>
     </row>
-    <row r="868" spans="13:13" s="11" customFormat="1">
+    <row r="868" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M868" s="12"/>
     </row>
-    <row r="869" spans="13:13" s="11" customFormat="1">
+    <row r="869" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M869" s="12"/>
     </row>
-    <row r="870" spans="13:13" s="11" customFormat="1">
+    <row r="870" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M870" s="12"/>
     </row>
-    <row r="871" spans="13:13" s="11" customFormat="1">
+    <row r="871" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M871" s="12"/>
     </row>
-    <row r="872" spans="13:13" s="11" customFormat="1">
+    <row r="872" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M872" s="12"/>
     </row>
-    <row r="873" spans="13:13" s="11" customFormat="1">
+    <row r="873" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M873" s="12"/>
     </row>
-    <row r="874" spans="13:13" s="11" customFormat="1">
+    <row r="874" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M874" s="12"/>
     </row>
-    <row r="875" spans="13:13" s="11" customFormat="1">
+    <row r="875" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M875" s="12"/>
     </row>
-    <row r="876" spans="13:13" s="11" customFormat="1">
+    <row r="876" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M876" s="12"/>
     </row>
-    <row r="877" spans="13:13" s="11" customFormat="1">
+    <row r="877" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M877" s="12"/>
     </row>
-    <row r="878" spans="13:13" s="11" customFormat="1">
+    <row r="878" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M878" s="12"/>
     </row>
-    <row r="879" spans="13:13" s="11" customFormat="1">
+    <row r="879" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M879" s="12"/>
     </row>
-    <row r="880" spans="13:13" s="11" customFormat="1">
+    <row r="880" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M880" s="12"/>
     </row>
-    <row r="881" spans="13:13" s="11" customFormat="1">
+    <row r="881" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M881" s="12"/>
     </row>
-    <row r="882" spans="13:13" s="11" customFormat="1">
+    <row r="882" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M882" s="12"/>
     </row>
-    <row r="883" spans="13:13" s="11" customFormat="1">
+    <row r="883" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M883" s="12"/>
     </row>
-    <row r="884" spans="13:13" s="11" customFormat="1">
+    <row r="884" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M884" s="12"/>
     </row>
-    <row r="885" spans="13:13" s="11" customFormat="1">
+    <row r="885" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M885" s="12"/>
     </row>
-    <row r="886" spans="13:13" s="11" customFormat="1">
+    <row r="886" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M886" s="12"/>
     </row>
-    <row r="887" spans="13:13" s="11" customFormat="1">
+    <row r="887" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M887" s="12"/>
     </row>
-    <row r="888" spans="13:13" s="11" customFormat="1">
+    <row r="888" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M888" s="12"/>
     </row>
-    <row r="889" spans="13:13" s="11" customFormat="1">
+    <row r="889" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M889" s="12"/>
     </row>
-    <row r="890" spans="13:13" s="11" customFormat="1">
+    <row r="890" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M890" s="12"/>
     </row>
-    <row r="891" spans="13:13" s="11" customFormat="1">
+    <row r="891" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M891" s="12"/>
     </row>
-    <row r="892" spans="13:13" s="11" customFormat="1">
+    <row r="892" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M892" s="12"/>
     </row>
-    <row r="893" spans="13:13" s="11" customFormat="1">
+    <row r="893" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M893" s="12"/>
     </row>
-    <row r="894" spans="13:13" s="11" customFormat="1">
+    <row r="894" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M894" s="12"/>
     </row>
-    <row r="895" spans="13:13" s="11" customFormat="1">
+    <row r="895" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M895" s="12"/>
     </row>
-    <row r="896" spans="13:13" s="11" customFormat="1">
+    <row r="896" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M896" s="12"/>
     </row>
-    <row r="897" spans="13:13" s="11" customFormat="1">
+    <row r="897" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M897" s="12"/>
     </row>
-    <row r="898" spans="13:13" s="11" customFormat="1">
+    <row r="898" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M898" s="12"/>
     </row>
-    <row r="899" spans="13:13" s="11" customFormat="1">
+    <row r="899" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M899" s="12"/>
     </row>
-    <row r="900" spans="13:13" s="11" customFormat="1">
+    <row r="900" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M900" s="12"/>
     </row>
-    <row r="901" spans="13:13" s="11" customFormat="1">
+    <row r="901" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M901" s="12"/>
     </row>
-    <row r="902" spans="13:13" s="11" customFormat="1">
+    <row r="902" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M902" s="12"/>
     </row>
-    <row r="903" spans="13:13" s="11" customFormat="1">
+    <row r="903" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M903" s="12"/>
     </row>
-    <row r="904" spans="13:13" s="11" customFormat="1">
+    <row r="904" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M904" s="12"/>
     </row>
-    <row r="905" spans="13:13" s="11" customFormat="1">
+    <row r="905" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M905" s="12"/>
     </row>
-    <row r="906" spans="13:13" s="11" customFormat="1">
+    <row r="906" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M906" s="12"/>
     </row>
-    <row r="907" spans="13:13" s="11" customFormat="1">
+    <row r="907" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M907" s="12"/>
     </row>
-    <row r="908" spans="13:13" s="11" customFormat="1">
+    <row r="908" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M908" s="12"/>
     </row>
-    <row r="909" spans="13:13" s="11" customFormat="1">
+    <row r="909" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M909" s="12"/>
     </row>
-    <row r="910" spans="13:13" s="11" customFormat="1">
+    <row r="910" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M910" s="12"/>
     </row>
-    <row r="911" spans="13:13" s="11" customFormat="1">
+    <row r="911" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M911" s="12"/>
     </row>
-    <row r="912" spans="13:13" s="11" customFormat="1">
+    <row r="912" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M912" s="12"/>
     </row>
-    <row r="913" spans="13:13" s="11" customFormat="1">
+    <row r="913" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M913" s="12"/>
     </row>
-    <row r="914" spans="13:13" s="11" customFormat="1">
+    <row r="914" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M914" s="12"/>
     </row>
-    <row r="915" spans="13:13" s="11" customFormat="1">
+    <row r="915" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M915" s="12"/>
     </row>
-    <row r="916" spans="13:13" s="11" customFormat="1">
+    <row r="916" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M916" s="12"/>
     </row>
-    <row r="917" spans="13:13" s="11" customFormat="1">
+    <row r="917" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M917" s="12"/>
     </row>
-    <row r="918" spans="13:13" s="11" customFormat="1">
+    <row r="918" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M918" s="12"/>
     </row>
-    <row r="919" spans="13:13" s="11" customFormat="1">
+    <row r="919" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M919" s="12"/>
     </row>
-    <row r="920" spans="13:13" s="11" customFormat="1">
+    <row r="920" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M920" s="12"/>
     </row>
-    <row r="921" spans="13:13" s="11" customFormat="1">
+    <row r="921" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M921" s="12"/>
     </row>
-    <row r="922" spans="13:13" s="11" customFormat="1">
+    <row r="922" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M922" s="12"/>
     </row>
-    <row r="923" spans="13:13" s="11" customFormat="1">
+    <row r="923" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M923" s="12"/>
     </row>
-    <row r="924" spans="13:13" s="11" customFormat="1">
+    <row r="924" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M924" s="12"/>
     </row>
-    <row r="925" spans="13:13" s="11" customFormat="1">
+    <row r="925" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M925" s="12"/>
     </row>
-    <row r="926" spans="13:13" s="11" customFormat="1">
+    <row r="926" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M926" s="12"/>
     </row>
-    <row r="927" spans="13:13" s="11" customFormat="1">
+    <row r="927" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M927" s="12"/>
     </row>
-    <row r="928" spans="13:13" s="11" customFormat="1">
+    <row r="928" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M928" s="12"/>
     </row>
-    <row r="929" spans="13:13" s="11" customFormat="1">
+    <row r="929" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M929" s="12"/>
     </row>
-    <row r="930" spans="13:13" s="11" customFormat="1">
+    <row r="930" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M930" s="12"/>
     </row>
-    <row r="931" spans="13:13" s="11" customFormat="1">
+    <row r="931" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M931" s="12"/>
     </row>
-    <row r="932" spans="13:13" s="11" customFormat="1">
+    <row r="932" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M932" s="12"/>
     </row>
-    <row r="933" spans="13:13" s="11" customFormat="1">
+    <row r="933" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M933" s="12"/>
     </row>
-    <row r="934" spans="13:13" s="11" customFormat="1">
+    <row r="934" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M934" s="12"/>
     </row>
-    <row r="935" spans="13:13" s="11" customFormat="1">
+    <row r="935" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M935" s="12"/>
     </row>
-    <row r="936" spans="13:13" s="11" customFormat="1">
+    <row r="936" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M936" s="12"/>
     </row>
-    <row r="937" spans="13:13" s="11" customFormat="1">
+    <row r="937" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M937" s="12"/>
     </row>
-    <row r="938" spans="13:13" s="11" customFormat="1">
+    <row r="938" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M938" s="12"/>
     </row>
-    <row r="939" spans="13:13" s="11" customFormat="1">
+    <row r="939" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M939" s="12"/>
     </row>
-    <row r="940" spans="13:13" s="11" customFormat="1">
+    <row r="940" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M940" s="12"/>
     </row>
-    <row r="941" spans="13:13" s="11" customFormat="1">
+    <row r="941" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M941" s="12"/>
     </row>
-    <row r="942" spans="13:13" s="11" customFormat="1">
+    <row r="942" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M942" s="12"/>
     </row>
-    <row r="943" spans="13:13" s="11" customFormat="1">
+    <row r="943" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M943" s="12"/>
     </row>
-    <row r="944" spans="13:13" s="11" customFormat="1">
+    <row r="944" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M944" s="12"/>
     </row>
-    <row r="945" spans="13:13" s="11" customFormat="1">
+    <row r="945" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M945" s="12"/>
     </row>
-    <row r="946" spans="13:13" s="11" customFormat="1">
+    <row r="946" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M946" s="12"/>
     </row>
-    <row r="947" spans="13:13" s="11" customFormat="1">
+    <row r="947" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M947" s="12"/>
     </row>
-    <row r="948" spans="13:13" s="11" customFormat="1">
+    <row r="948" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M948" s="12"/>
     </row>
-    <row r="949" spans="13:13" s="11" customFormat="1">
+    <row r="949" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M949" s="12"/>
     </row>
-    <row r="950" spans="13:13" s="11" customFormat="1">
+    <row r="950" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M950" s="12"/>
     </row>
-    <row r="951" spans="13:13" s="11" customFormat="1">
+    <row r="951" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M951" s="12"/>
     </row>
-    <row r="952" spans="13:13" s="11" customFormat="1">
+    <row r="952" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M952" s="12"/>
     </row>
-    <row r="953" spans="13:13" s="11" customFormat="1">
+    <row r="953" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M953" s="12"/>
     </row>
-    <row r="954" spans="13:13" s="11" customFormat="1">
+    <row r="954" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M954" s="12"/>
     </row>
-    <row r="955" spans="13:13" s="11" customFormat="1">
+    <row r="955" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M955" s="12"/>
     </row>
-    <row r="956" spans="13:13" s="11" customFormat="1">
+    <row r="956" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M956" s="12"/>
     </row>
-    <row r="957" spans="13:13" s="11" customFormat="1">
+    <row r="957" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M957" s="12"/>
     </row>
-    <row r="958" spans="13:13" s="11" customFormat="1">
+    <row r="958" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M958" s="12"/>
     </row>
-    <row r="959" spans="13:13" s="11" customFormat="1">
+    <row r="959" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M959" s="12"/>
     </row>
-    <row r="960" spans="13:13" s="11" customFormat="1">
+    <row r="960" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M960" s="12"/>
     </row>
-    <row r="961" spans="13:13" s="11" customFormat="1">
+    <row r="961" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M961" s="12"/>
     </row>
-    <row r="962" spans="13:13" s="11" customFormat="1">
+    <row r="962" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M962" s="12"/>
     </row>
-    <row r="963" spans="13:13" s="11" customFormat="1">
+    <row r="963" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M963" s="12"/>
     </row>
-    <row r="964" spans="13:13" s="11" customFormat="1">
+    <row r="964" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M964" s="12"/>
     </row>
-    <row r="965" spans="13:13" s="11" customFormat="1">
+    <row r="965" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M965" s="12"/>
     </row>
-    <row r="966" spans="13:13" s="11" customFormat="1">
+    <row r="966" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M966" s="12"/>
     </row>
-    <row r="967" spans="13:13" s="11" customFormat="1">
+    <row r="967" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M967" s="12"/>
     </row>
-    <row r="968" spans="13:13" s="11" customFormat="1">
+    <row r="968" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M968" s="12"/>
     </row>
-    <row r="969" spans="13:13" s="11" customFormat="1">
+    <row r="969" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M969" s="12"/>
     </row>
-    <row r="970" spans="13:13" s="11" customFormat="1">
+    <row r="970" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M970" s="12"/>
     </row>
-    <row r="971" spans="13:13" s="11" customFormat="1">
+    <row r="971" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M971" s="12"/>
     </row>
-    <row r="972" spans="13:13" s="11" customFormat="1">
+    <row r="972" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M972" s="12"/>
     </row>
-    <row r="973" spans="13:13" s="11" customFormat="1">
+    <row r="973" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M973" s="12"/>
     </row>
-    <row r="974" spans="13:13" s="11" customFormat="1">
+    <row r="974" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M974" s="12"/>
     </row>
-    <row r="975" spans="13:13" s="11" customFormat="1">
+    <row r="975" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M975" s="12"/>
     </row>
-    <row r="976" spans="13:13" s="11" customFormat="1">
+    <row r="976" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M976" s="12"/>
     </row>
-    <row r="977" spans="13:13" s="11" customFormat="1">
+    <row r="977" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M977" s="12"/>
     </row>
-    <row r="978" spans="13:13" s="11" customFormat="1">
+    <row r="978" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M978" s="12"/>
     </row>
-    <row r="979" spans="13:13" s="11" customFormat="1">
+    <row r="979" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M979" s="12"/>
     </row>
-    <row r="980" spans="13:13" s="11" customFormat="1">
+    <row r="980" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M980" s="12"/>
     </row>
-    <row r="981" spans="13:13" s="11" customFormat="1">
+    <row r="981" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M981" s="12"/>
     </row>
-    <row r="982" spans="13:13" s="11" customFormat="1">
+    <row r="982" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M982" s="12"/>
     </row>
-    <row r="983" spans="13:13" s="11" customFormat="1">
+    <row r="983" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M983" s="12"/>
     </row>
-    <row r="984" spans="13:13" s="11" customFormat="1">
+    <row r="984" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M984" s="12"/>
     </row>
-    <row r="985" spans="13:13" s="11" customFormat="1">
+    <row r="985" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M985" s="12"/>
     </row>
-    <row r="986" spans="13:13" s="11" customFormat="1">
+    <row r="986" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M986" s="12"/>
     </row>
-    <row r="987" spans="13:13" s="11" customFormat="1">
+    <row r="987" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M987" s="12"/>
     </row>
-    <row r="988" spans="13:13" s="11" customFormat="1">
+    <row r="988" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M988" s="12"/>
     </row>
-    <row r="989" spans="13:13" s="11" customFormat="1">
+    <row r="989" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M989" s="12"/>
     </row>
-    <row r="990" spans="13:13" s="11" customFormat="1">
+    <row r="990" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M990" s="12"/>
     </row>
-    <row r="991" spans="13:13" s="11" customFormat="1">
+    <row r="991" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M991" s="12"/>
     </row>
-    <row r="992" spans="13:13" s="11" customFormat="1">
+    <row r="992" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M992" s="12"/>
     </row>
-    <row r="993" spans="13:13" s="11" customFormat="1">
+    <row r="993" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M993" s="12"/>
     </row>
-    <row r="994" spans="13:13" s="11" customFormat="1">
+    <row r="994" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M994" s="12"/>
     </row>
-    <row r="995" spans="13:13" s="11" customFormat="1">
+    <row r="995" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M995" s="12"/>
     </row>
-    <row r="996" spans="13:13" s="11" customFormat="1">
+    <row r="996" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M996" s="12"/>
     </row>
-    <row r="997" spans="13:13" s="11" customFormat="1">
+    <row r="997" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M997" s="12"/>
     </row>
-    <row r="998" spans="13:13" s="11" customFormat="1">
+    <row r="998" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M998" s="12"/>
     </row>
-    <row r="999" spans="13:13" s="11" customFormat="1">
+    <row r="999" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M999" s="12"/>
     </row>
-    <row r="1000" spans="13:13" s="11" customFormat="1">
+    <row r="1000" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1000" s="12"/>
     </row>
-    <row r="1001" spans="13:13" s="11" customFormat="1">
+    <row r="1001" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1001" s="12"/>
     </row>
-    <row r="1002" spans="13:13" s="11" customFormat="1">
+    <row r="1002" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1002" s="12"/>
     </row>
-    <row r="1003" spans="13:13" s="11" customFormat="1">
+    <row r="1003" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1003" s="12"/>
     </row>
-    <row r="1004" spans="13:13" s="11" customFormat="1">
+    <row r="1004" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1004" s="12"/>
     </row>
-    <row r="1005" spans="13:13" s="11" customFormat="1">
+    <row r="1005" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1005" s="12"/>
     </row>
-    <row r="1006" spans="13:13" s="11" customFormat="1">
+    <row r="1006" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1006" s="12"/>
     </row>
-    <row r="1007" spans="13:13" s="11" customFormat="1">
+    <row r="1007" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1007" s="12"/>
     </row>
-    <row r="1008" spans="13:13" s="11" customFormat="1">
+    <row r="1008" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1008" s="12"/>
     </row>
-    <row r="1009" spans="13:13" s="11" customFormat="1">
+    <row r="1009" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1009" s="12"/>
     </row>
-    <row r="1010" spans="13:13" s="11" customFormat="1">
+    <row r="1010" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1010" s="12"/>
     </row>
-    <row r="1011" spans="13:13" s="11" customFormat="1">
+    <row r="1011" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1011" s="12"/>
     </row>
-    <row r="1012" spans="13:13" s="11" customFormat="1">
+    <row r="1012" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1012" s="12"/>
     </row>
-    <row r="1013" spans="13:13" s="11" customFormat="1">
+    <row r="1013" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1013" s="12"/>
     </row>
-    <row r="1014" spans="13:13" s="11" customFormat="1">
+    <row r="1014" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1014" s="12"/>
     </row>
-    <row r="1015" spans="13:13" s="11" customFormat="1">
+    <row r="1015" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1015" s="12"/>
     </row>
-    <row r="1016" spans="13:13" s="11" customFormat="1">
+    <row r="1016" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1016" s="12"/>
     </row>
-    <row r="1017" spans="13:13" s="11" customFormat="1">
+    <row r="1017" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1017" s="12"/>
     </row>
-    <row r="1018" spans="13:13" s="11" customFormat="1">
+    <row r="1018" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1018" s="12"/>
     </row>
-    <row r="1019" spans="13:13" s="11" customFormat="1">
+    <row r="1019" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1019" s="12"/>
     </row>
-    <row r="1020" spans="13:13" s="11" customFormat="1">
+    <row r="1020" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1020" s="12"/>
     </row>
-    <row r="1021" spans="13:13" s="11" customFormat="1">
+    <row r="1021" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1021" s="12"/>
     </row>
-    <row r="1022" spans="13:13" s="11" customFormat="1">
+    <row r="1022" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1022" s="12"/>
     </row>
-    <row r="1023" spans="13:13" s="11" customFormat="1">
+    <row r="1023" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1023" s="12"/>
     </row>
-    <row r="1024" spans="13:13" s="11" customFormat="1">
+    <row r="1024" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1024" s="12"/>
     </row>
-    <row r="1025" spans="13:13" s="11" customFormat="1">
+    <row r="1025" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1025" s="12"/>
     </row>
-    <row r="1026" spans="13:13" s="11" customFormat="1">
+    <row r="1026" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1026" s="12"/>
     </row>
-    <row r="1027" spans="13:13" s="11" customFormat="1">
+    <row r="1027" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1027" s="12"/>
     </row>
-    <row r="1028" spans="13:13" s="11" customFormat="1">
+    <row r="1028" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1028" s="12"/>
     </row>
-    <row r="1029" spans="13:13" s="11" customFormat="1">
+    <row r="1029" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1029" s="12"/>
     </row>
-    <row r="1030" spans="13:13" s="11" customFormat="1">
+    <row r="1030" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1030" s="12"/>
     </row>
-    <row r="1031" spans="13:13" s="11" customFormat="1">
+    <row r="1031" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1031" s="12"/>
     </row>
-    <row r="1032" spans="13:13" s="11" customFormat="1">
+    <row r="1032" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1032" s="12"/>
     </row>
-    <row r="1033" spans="13:13" s="11" customFormat="1">
+    <row r="1033" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1033" s="12"/>
     </row>
-    <row r="1034" spans="13:13" s="11" customFormat="1">
+    <row r="1034" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1034" s="12"/>
     </row>
-    <row r="1035" spans="13:13" s="11" customFormat="1">
+    <row r="1035" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1035" s="12"/>
     </row>
-    <row r="1036" spans="13:13" s="11" customFormat="1">
+    <row r="1036" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1036" s="12"/>
     </row>
-    <row r="1037" spans="13:13" s="11" customFormat="1">
+    <row r="1037" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1037" s="12"/>
     </row>
-    <row r="1038" spans="13:13" s="11" customFormat="1">
+    <row r="1038" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1038" s="12"/>
     </row>
-    <row r="1039" spans="13:13" s="11" customFormat="1">
+    <row r="1039" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1039" s="12"/>
     </row>
-    <row r="1040" spans="13:13" s="11" customFormat="1">
+    <row r="1040" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1040" s="12"/>
     </row>
-    <row r="1041" spans="13:13" s="11" customFormat="1">
+    <row r="1041" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1041" s="12"/>
     </row>
-    <row r="1042" spans="13:13" s="11" customFormat="1">
+    <row r="1042" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1042" s="12"/>
     </row>
-    <row r="1043" spans="13:13" s="11" customFormat="1">
+    <row r="1043" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1043" s="12"/>
     </row>
-    <row r="1044" spans="13:13" s="11" customFormat="1">
+    <row r="1044" spans="13:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M1044" s="12"/>
     </row>
   </sheetData>
@@ -20140,9 +20137,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="21">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20184,7 +20181,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -20218,7 +20215,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="str">
@@ -20346,7 +20343,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -20478,7 +20475,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -20610,7 +20607,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1683</v>
       </c>
@@ -20742,7 +20739,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1660</v>
       </c>
@@ -20874,7 +20871,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -21006,7 +21003,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -21138,7 +21135,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -21270,7 +21267,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -21402,7 +21399,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -21534,7 +21531,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -21666,7 +21663,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -21798,7 +21795,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c3044\Desktop\Schedule_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115113F2-9D4E-4C2A-A51D-F5A12DEF946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9D10F-EB96-4BD3-B0A2-936372015E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
